--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.337</v>
+        <v>-0.145</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.637</v>
+        <v>27.394</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.401</v>
+        <v>-0.322</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.768</v>
+        <v>32.339</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.541</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.934</v>
+        <v>26.992</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.474637319567085</v>
+        <v>25.14535664810479</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.63826170058208</v>
+        <v>25.14535668381777</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.85553150695621</v>
+        <v>25.14535669538726</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.73721086387653</v>
+        <v>25.14535664854195</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.76441619740863</v>
+        <v>25.14535668898368</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.80975807265578</v>
+        <v>25.14535670208509</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.28162172706784</v>
+        <v>25.14535665905067</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>24.53471092235861</v>
+        <v>25.14535669509586</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.80925406882398</v>
+        <v>25.14535670677298</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>24.53993348010341</v>
+        <v>25.14535670557571</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.82147295960431</v>
+        <v>25.14535672388211</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.93342327525649</v>
+        <v>25.14535672939491</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10.12610493114253</v>
+        <v>25.14535667729359</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.16114526680186</v>
+        <v>25.14535672122076</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.20816215697828</v>
+        <v>25.14535673487205</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.36362261091372</v>
+        <v>25.14535670647845</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.94226996149886</v>
+        <v>25.14535674656789</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.96874976453643</v>
+        <v>25.14535676000535</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.440456622923012</v>
+        <v>25.14535670448689</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.47332395095552</v>
+        <v>25.14535674988458</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.43023551376965</v>
+        <v>25.1453567651013</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12.66874126374372</v>
+        <v>25.14535671936587</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.37625271320531</v>
+        <v>25.14535675982824</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38.46275779376082</v>
+        <v>25.1453567733907</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.66588873953205</v>
+        <v>25.14535676790231</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>42.12725754407137</v>
+        <v>25.14535678943684</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>47.22126183151175</v>
+        <v>25.14535679571132</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>14.41974945506436</v>
+        <v>25.14535673522433</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>37.57411919113496</v>
+        <v>25.14535678508203</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>46.34555697855811</v>
+        <v>25.14535680071323</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>16.14128376983946</v>
+        <v>25.1453567490281</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.03002394607351</v>
+        <v>25.14535678874126</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.29918687107101</v>
+        <v>25.14535680180017</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>9.754404945081816</v>
+        <v>25.14535674786754</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>32.2661110069726</v>
+        <v>25.14535679283912</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>40.50095592956905</v>
+        <v>25.14535680762716</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>19.00934409978172</v>
+        <v>25.14535676409429</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.03696487773341</v>
+        <v>25.14535680417688</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>46.36930268392457</v>
+        <v>25.14535681735727</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.39981966189389</v>
+        <v>25.1453568106059</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>51.51672695073547</v>
+        <v>25.14535683151524</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>56.61815228688126</v>
+        <v>25.14535683733435</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>21.03304028034949</v>
+        <v>25.14535677687721</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>45.88339341914993</v>
+        <v>25.14535682613856</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>54.88313235241363</v>
+        <v>25.14535684140138</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.575663868817472</v>
+        <v>25.14535664544874</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.96794792274071</v>
+        <v>25.14535668171923</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.57902476111477</v>
+        <v>25.14535669311698</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.875394778779015</v>
+        <v>25.14535664582711</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.29552615146077</v>
+        <v>25.14535668690018</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.65456295485583</v>
+        <v>25.14535669980711</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>13.04403950285628</v>
+        <v>25.14535665631989</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.53775255979597</v>
+        <v>25.14535669292779</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.20063302574287</v>
+        <v>25.14535670443157</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.14582296597624</v>
+        <v>25.14535670280163</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>35.78979800994081</v>
+        <v>25.14535672107301</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>39.21629877731704</v>
+        <v>25.14535672652822</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>11.90576807407237</v>
+        <v>25.14535667368565</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.43112966753055</v>
+        <v>25.14535671837492</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.6985539543122</v>
+        <v>25.14535673189899</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.24658500038757</v>
+        <v>25.14535670200089</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.77284607361669</v>
+        <v>25.14535674265733</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.07375568185506</v>
+        <v>25.14535675586919</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6.299237046823084</v>
+        <v>25.14535669982892</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.40675337636488</v>
+        <v>25.14535674586868</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.54210687036992</v>
+        <v>25.14535676082993</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>15.35261035589738</v>
+        <v>25.14535671483591</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35.01725027341335</v>
+        <v>25.14535675587055</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>41.371744514721</v>
+        <v>25.14535676920531</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>34.98245879093314</v>
+        <v>25.14535676350048</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>45.5467526674652</v>
+        <v>25.14535678491882</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>49.84362553219914</v>
+        <v>25.14535679109134</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>16.05407101989214</v>
+        <v>25.14535673009028</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>40.26622288551982</v>
+        <v>25.14535678070965</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>48.165221863854</v>
+        <v>25.14535679617267</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.90456863592485</v>
+        <v>25.14535674570643</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.74276598096098</v>
+        <v>25.14535678609919</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.29313640984752</v>
+        <v>25.14535679886086</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>11.65585171472415</v>
+        <v>25.1453567443344</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.24429053505128</v>
+        <v>25.14535679007557</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.66545082521994</v>
+        <v>25.14535680452702</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>21.71786941450542</v>
+        <v>25.14535676083654</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>42.70442333731941</v>
+        <v>25.14535680160505</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>49.31174996380546</v>
+        <v>25.14535681448544</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>43.72605398374294</v>
+        <v>25.14535680750048</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>54.99718672324434</v>
+        <v>25.14535682836289</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>59.33675749417223</v>
+        <v>25.14535683406127</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>22.70260636229174</v>
+        <v>25.14535677297327</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>48.70407632521245</v>
+        <v>25.14535682317565</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>56.79776636345319</v>
+        <v>25.1453568381555</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>9.244748101078258</v>
+        <v>25.14535664471279</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.5627848086506</v>
+        <v>25.14535668098735</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.13816660164377</v>
+        <v>25.1453566923718</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5.327489878130358</v>
+        <v>25.14535664501318</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22.66328384742668</v>
+        <v>25.14535668609086</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.98189261088176</v>
+        <v>25.14535669898272</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>12.54088246614018</v>
+        <v>25.14535665552708</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>27.95947801996166</v>
+        <v>25.14535669213908</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>33.58632335045824</v>
+        <v>25.14535670362943</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>27.65604323232598</v>
+        <v>25.14535670214731</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>35.28329658203009</v>
+        <v>25.14535672041593</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.67091146432669</v>
+        <v>25.14535672587948</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>11.45126704457782</v>
+        <v>25.14535667305561</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.88962827740594</v>
+        <v>25.14535671775012</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.12408264913872</v>
+        <v>25.14535673126127</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>13.70179939187686</v>
+        <v>25.14535670192948</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.16634034314421</v>
+        <v>25.14535674261531</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.42365667622038</v>
+        <v>25.14535675580918</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6.59828637521362</v>
+        <v>25.14535669972977</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.6355484035807</v>
+        <v>25.14535674580281</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.72155631270417</v>
+        <v>25.14535676074369</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>15.72147042088004</v>
+        <v>25.14535671478536</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>35.32354321006999</v>
+        <v>25.14535675584967</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.63404032242152</v>
+        <v>25.14535676916627</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.34189835063678</v>
+        <v>25.14535676357136</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>45.90248042873911</v>
+        <v>25.14535678499774</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>50.1564369614145</v>
+        <v>25.14535679117038</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>16.43718474092141</v>
+        <v>25.14535673014587</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>40.56948339363257</v>
+        <v>25.14535678079736</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>48.42665234129391</v>
+        <v>25.14535679624293</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.25962524086239</v>
+        <v>25.14535674570689</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>39.05323976227938</v>
+        <v>25.14535678613262</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>45.57140915775268</v>
+        <v>25.14535679887799</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>11.85325126917554</v>
+        <v>25.14535674431075</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.39082656671993</v>
+        <v>25.14535679008926</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.77557373090774</v>
+        <v>25.14535680452225</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>21.97386657399975</v>
+        <v>25.14535676085818</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>42.91515012766986</v>
+        <v>25.14535680165997</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>49.48999856330433</v>
+        <v>25.1453568145239</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.99521551409149</v>
+        <v>25.14535680763263</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>55.26839283856566</v>
+        <v>25.14535682850361</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>59.57147198634004</v>
+        <v>25.1453568342023</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>22.96796325556988</v>
+        <v>25.14535677307897</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>48.91742451673555</v>
+        <v>25.14535682331933</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.98002869653735</v>
+        <v>25.1453568382826</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>5.41491693606411</v>
+        <v>25.14535664376937</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>19.29115826983164</v>
+        <v>25.14535667923174</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.34573529935141</v>
+        <v>25.14535669069168</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.409303471378724</v>
+        <v>25.14535664391777</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>17.11120258712433</v>
+        <v>25.14535668407571</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.97214214005759</v>
+        <v>25.14535669705307</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>7.877598494700326</v>
+        <v>25.1453566541688</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>21.8410518098032</v>
+        <v>25.14535668996105</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.95134929936437</v>
+        <v>25.14535670152761</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>21.86434617856094</v>
+        <v>25.14535670062044</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.99547077593133</v>
+        <v>25.14535671878875</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>33.0315986247189</v>
+        <v>25.1453567242647</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>7.767424491426201</v>
+        <v>25.14535667272046</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>24.43914722636508</v>
+        <v>25.14535671632398</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>32.2899510236894</v>
+        <v>25.14535672985349</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.376282313230051</v>
+        <v>25.1453567019019</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.6164543287372</v>
+        <v>25.14535674171153</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>34.46184199837698</v>
+        <v>25.14535675502867</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2.132629027325383</v>
+        <v>25.14535669957952</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>22.78229999410029</v>
+        <v>25.14535674466034</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.53396572598369</v>
+        <v>25.14535675974081</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.6564259879439</v>
+        <v>25.14535675438329</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>35.56012584453742</v>
+        <v>25.14535676782432</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.00401247763135</v>
+        <v>25.14535676264482</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.27680122143015</v>
+        <v>25.14535678401367</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>44.27699860499519</v>
+        <v>25.14535679024685</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>12.09119562139227</v>
+        <v>25.14535673034046</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>34.80305780908882</v>
+        <v>25.1453567798363</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>43.36255927591154</v>
+        <v>25.14535679533417</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>14.52423008742558</v>
+        <v>25.14535674521324</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>34.07198429296867</v>
+        <v>25.145356784657</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>41.1457837810178</v>
+        <v>25.14535679760898</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>7.744504297255373</v>
+        <v>25.1453567437351</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.87019994569335</v>
+        <v>25.14535678840161</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>37.8835473232494</v>
+        <v>25.14535680306857</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>16.97552872618644</v>
+        <v>25.14535675975759</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>36.65940490230546</v>
+        <v>25.14535679956827</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>43.79448193121756</v>
+        <v>25.14535681264073</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>38.04571053366467</v>
+        <v>25.14535680616087</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>48.96718937061898</v>
+        <v>25.14535682691878</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>53.96645351191661</v>
+        <v>25.14535683270177</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>19.00476060118508</v>
+        <v>25.14535677277521</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>43.40543026867099</v>
+        <v>25.14535682169133</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>52.1799900096197</v>
+        <v>25.14535683683846</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>9.768520526608633</v>
+        <v>25.14535665312692</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>24.40890923094099</v>
+        <v>25.14535668880882</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.48388356275156</v>
+        <v>25.1453567001988</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>6.216426550113828</v>
+        <v>25.14535665386013</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>22.7838613229584</v>
+        <v>25.14535669426668</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.66804204933018</v>
+        <v>25.1453567071648</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>12.92826028523131</v>
+        <v>25.14535666439737</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>27.66250692672932</v>
+        <v>25.1453567004112</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33.79342835825872</v>
+        <v>25.14535671190712</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>27.31122411036688</v>
+        <v>25.14535671029409</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34.77823697481526</v>
+        <v>25.14535672850669</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>38.78235433079656</v>
+        <v>25.14535673392047</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>12.48276334742248</v>
+        <v>25.14535668193991</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>30.04150338084692</v>
+        <v>25.14535672578094</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>37.91530861460549</v>
+        <v>25.14535673923154</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>15.15822086332815</v>
+        <v>25.14535671199355</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>34.13675157436651</v>
+        <v>25.14535675202051</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>40.93151143805784</v>
+        <v>25.14535676522812</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>8.347822776102575</v>
+        <v>25.14535671031312</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.83372373626939</v>
+        <v>25.14535675564006</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>37.52808374031287</v>
+        <v>25.14535677059649</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>35.96766404877782</v>
+        <v>25.14535676565576</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>42.82028254610181</v>
+        <v>25.14535677898622</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>35.93605654697981</v>
+        <v>25.14535677318541</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>46.52244442598077</v>
+        <v>25.1453567945917</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>51.46228234069847</v>
+        <v>25.14535680075106</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>18.33963332199539</v>
+        <v>25.14535674044982</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>41.90013399056842</v>
+        <v>25.14535679017679</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>50.40574968883978</v>
+        <v>25.14535680555106</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>19.24349881734889</v>
+        <v>25.14535675368898</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>39.4546415691015</v>
+        <v>25.14535679330093</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>46.50500276753701</v>
+        <v>25.14535680616918</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>12.89855245304637</v>
+        <v>25.1453567527728</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>35.77567527017912</v>
+        <v>25.14535679762978</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43.76248075001455</v>
+        <v>25.14535681220191</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.41811812003014</v>
+        <v>25.14535676904305</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>42.77123114646724</v>
+        <v>25.1453568090235</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>49.88260954136258</v>
+        <v>25.14535682201144</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>43.808739891054</v>
+        <v>25.14535681497085</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>55.03948968019256</v>
+        <v>25.14535683575865</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>59.99795544744741</v>
+        <v>25.14535684148436</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>24.16596815350867</v>
+        <v>25.14535678123342</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>49.33389679473516</v>
+        <v>25.14535683032653</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>58.08516380953739</v>
+        <v>25.14535684537828</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>9.756748202051366</v>
+        <v>25.14535665643657</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>24.74332916843397</v>
+        <v>25.14535669084483</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.11552392492012</v>
+        <v>25.14535670157327</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>6.723238767606588</v>
+        <v>25.14535665728816</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.68370339588365</v>
+        <v>25.14535669625242</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.77240563170903</v>
+        <v>25.14535670840142</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>13.45691566923013</v>
+        <v>25.1453566673167</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.54231326294607</v>
+        <v>25.14535670204504</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>33.96443968100051</v>
+        <v>25.14535671287328</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>27.93014297299897</v>
+        <v>25.14535671084147</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>35.35047711017349</v>
+        <v>25.14535672816889</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>38.70275305301344</v>
+        <v>25.14535673325674</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>12.38626813352941</v>
+        <v>25.14535668309147</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.32220279014199</v>
+        <v>25.14535672538942</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>37.30207665820656</v>
+        <v>25.14535673810777</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>17.0294270766938</v>
+        <v>25.1453567128604</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>36.07431957268806</v>
+        <v>25.1453567515012</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>41.99799743136859</v>
+        <v>25.14535676387838</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>10.83842309500399</v>
+        <v>25.14535671137672</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.40024005447488</v>
+        <v>25.14535675513396</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>39.10868758801814</v>
+        <v>25.14535676915</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>19.57207008553448</v>
+        <v>25.1453567257872</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>38.75202861406225</v>
+        <v>25.14535676478745</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>44.72630083478416</v>
+        <v>25.14535677727977</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>38.40031248293013</v>
+        <v>25.14535677142114</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>48.66912613723363</v>
+        <v>25.1453567917527</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>52.80038275337331</v>
+        <v>25.14535679750368</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20.23339340382131</v>
+        <v>25.14535673950923</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>43.75533313596902</v>
+        <v>25.14535678753474</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>51.20638093183877</v>
+        <v>25.14535680200224</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>20.85686570821079</v>
+        <v>25.1453567530787</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>15.1418887856341</v>
+        <v>25.14535675225412</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>38.00519242737043</v>
+        <v>25.14535679563976</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>44.98195623792587</v>
+        <v>25.14535680923477</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>24.81838263169865</v>
+        <v>25.14535676801784</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>45.16027975277561</v>
+        <v>25.14535680668689</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>51.37189104945594</v>
+        <v>25.14535681880395</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>45.76721874588813</v>
+        <v>25.14535681174741</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>56.68225819165689</v>
+        <v>25.14535683153673</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>60.85928611514289</v>
+        <v>25.1453568368684</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>25.68806973603838</v>
+        <v>25.14535677886123</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>50.77776406398733</v>
+        <v>25.14535682639506</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>58.42842373392222</v>
+        <v>25.14535684047856</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>4.042955604865291</v>
+        <v>25.14535664323639</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>17.69747421140132</v>
+        <v>25.14535667752053</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.32860137451239</v>
+        <v>25.14535668860647</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.4023488951916825</v>
+        <v>25.14535664328749</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>15.85357598025815</v>
+        <v>25.1453566821112</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>22.23545559872793</v>
+        <v>25.14535669466503</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>6.72130148555094</v>
+        <v>25.1453566531445</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>20.46252806212404</v>
+        <v>25.14535668774757</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>26.14594098791991</v>
+        <v>25.14535669893663</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>20.83436848155193</v>
+        <v>25.14535669806418</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.7433977565972</v>
+        <v>25.14535671551672</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.29883291299174</v>
+        <v>25.14535672082943</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>6.397788953527389</v>
+        <v>25.14535667069817</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>22.83352833910493</v>
+        <v>25.14535671293763</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.13324834009839</v>
+        <v>25.14535672605394</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>8.672625872988446</v>
+        <v>25.14535669896208</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.53468486513431</v>
+        <v>25.14535673753694</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>32.92816516216587</v>
+        <v>25.14535675038813</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>2.120684310741652</v>
+        <v>25.14535669671019</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>22.34237948484182</v>
+        <v>25.14535674039275</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.58317569422862</v>
+        <v>25.14535675494557</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>10.20079317731992</v>
+        <v>25.14535671087109</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.18707111998069</v>
+        <v>25.14535674980478</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>34.63554051212726</v>
+        <v>25.14535676277553</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.73227097170988</v>
+        <v>25.14535675782671</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>38.61780357642866</v>
+        <v>25.14535677835682</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.05905118416683</v>
+        <v>25.14535678436632</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>11.52869827704842</v>
+        <v>25.1453567262653</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>33.77186614008431</v>
+        <v>25.14535677431045</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>41.76281416260544</v>
+        <v>25.14535678930743</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>13.81405787438099</v>
+        <v>25.14535674114347</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>33.01157111007907</v>
+        <v>25.14535677948492</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>39.63444342350832</v>
+        <v>25.14535679188803</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>7.882195495812514</v>
+        <v>25.1453567397168</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.61154015432107</v>
+        <v>25.14535678313504</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>37.11533772273933</v>
+        <v>25.14535679718045</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>16.9299902060028</v>
+        <v>25.14535675528077</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>36.26191394126719</v>
+        <v>25.14535679397889</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>42.94298254375934</v>
+        <v>25.14535680649738</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>37.78173073041603</v>
+        <v>25.14535680028846</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>48.34259789213108</v>
+        <v>25.14535682027052</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>52.81661154288143</v>
+        <v>25.14535682581335</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>18.49599599121456</v>
+        <v>25.14535676763102</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>42.52685080317033</v>
+        <v>25.14535681528271</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>50.70436966514858</v>
+        <v>25.14535682980576</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>5.245284539771426</v>
+        <v>25.1453566467231</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>19.87821498005583</v>
+        <v>25.14535668267865</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>25.95941936497001</v>
+        <v>25.14535669418828</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1.48043314022626</v>
+        <v>25.14535664717336</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>18.03947134494686</v>
+        <v>25.14535668788978</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>24.9307459141475</v>
+        <v>25.1453567009234</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>8.070693248265449</v>
+        <v>25.14535665761142</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>22.79731076084579</v>
+        <v>25.14535669390144</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.93449600396371</v>
+        <v>25.14535670551814</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>22.67778984495013</v>
+        <v>25.14535670414549</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>30.14624927099042</v>
+        <v>25.14535672250394</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.1387496488922</v>
+        <v>25.14535672798608</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>7.818057039948735</v>
+        <v>25.14535667565901</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>25.38534267696464</v>
+        <v>25.14535671985815</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>33.26482766002285</v>
+        <v>25.14535673345444</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>10.1016374503718</v>
+        <v>25.14535670557073</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.08371512568788</v>
+        <v>25.14535674590651</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>35.90006863815116</v>
+        <v>25.1453567592656</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>3.063713981077882</v>
+        <v>25.14535670356406</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>24.55376613185507</v>
+        <v>25.1453567492407</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>32.27259446587786</v>
+        <v>25.14535676436867</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>11.45097676027528</v>
+        <v>25.14535671845416</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>30.56554710823894</v>
+        <v>25.14535675916516</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>37.43989713309961</v>
+        <v>25.14535677264852</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.77794975634522</v>
+        <v>25.14535676705776</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>41.37200514791224</v>
+        <v>25.14535678863523</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>46.31045279907543</v>
+        <v>25.14535679487749</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>13.13144506098063</v>
+        <v>25.14535673415037</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>36.71166620741431</v>
+        <v>25.14535678428117</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>45.24258000899006</v>
+        <v>25.14535679984076</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>14.68167617703318</v>
+        <v>25.14535674843764</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>34.92859838161371</v>
+        <v>25.14535678838181</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>42.00557964686372</v>
+        <v>25.14535680139608</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>8.132347344805357</v>
+        <v>25.14535674723995</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>31.05005002628582</v>
+        <v>25.14535679247314</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>39.06707159346715</v>
+        <v>25.14535680721064</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>17.56786721018375</v>
+        <v>25.14535676351199</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>37.95694967830767</v>
+        <v>25.14535680382775</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>45.09516430188364</v>
+        <v>25.14535681696308</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>39.23109812491708</v>
+        <v>25.14535681008871</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>50.48241750834397</v>
+        <v>25.14535683106041</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>55.44642522891985</v>
+        <v>25.14535683686055</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>19.49390556418875</v>
+        <v>25.14535677613157</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>44.72665379075354</v>
+        <v>25.1453568256592</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>53.5039108017188</v>
+        <v>25.14535684088892</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>13.21207687936855</v>
+        <v>25.14535666102793</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.77668519662107</v>
+        <v>25.14535669637165</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>34.33648642755661</v>
+        <v>25.14535670746351</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>10.59319444948599</v>
+        <v>25.14535666248255</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.2073956648499</v>
+        <v>25.14535670250614</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>34.5090035614529</v>
+        <v>25.14535671506668</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>17.69925701864332</v>
+        <v>25.14535667305701</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>33.36658074556927</v>
+        <v>25.14535670872951</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>38.97827311900595</v>
+        <v>25.14535671992456</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>32.76509630831356</v>
+        <v>25.14535671770929</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>40.44642582852579</v>
+        <v>25.14535673551329</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>43.87745832747387</v>
+        <v>25.1453567407628</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>16.57232850457464</v>
+        <v>25.14535668905675</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>35.25960949159602</v>
+        <v>25.14535673255047</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>42.50227890358148</v>
+        <v>25.14535674570494</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>17.27648900209933</v>
+        <v>25.14535671646611</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>36.9502824008436</v>
+        <v>25.14535675609937</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>43.06326648172215</v>
+        <v>25.14535676888757</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>11.48704252839904</v>
+        <v>25.14535671545893</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>33.76038977997194</v>
+        <v>25.14535676034003</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>40.68368654674524</v>
+        <v>25.14535677482152</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>20.46415664345889</v>
+        <v>25.14535673041971</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>40.27743987548613</v>
+        <v>25.14535677042165</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>46.44298227356172</v>
+        <v>25.14535678332882</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>39.98324588436515</v>
+        <v>25.14535677721549</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>50.57318931688756</v>
+        <v>25.14535679809033</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>54.79516958573505</v>
+        <v>25.14535680401563</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>21.19317007977231</v>
+        <v>25.14535674439121</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>45.5538252003366</v>
+        <v>25.14535679369316</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>53.25148307777077</v>
+        <v>25.14535680864795</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>21.21259471475959</v>
+        <v>25.14535675675459</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>42.07929835683123</v>
+        <v>25.14535679607112</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>48.45673066800823</v>
+        <v>25.14535680844086</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>16.05068735522037</v>
+        <v>25.14535675642764</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>39.67041880246278</v>
+        <v>25.14535680095007</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>46.89634483772696</v>
+        <v>25.14535681495769</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.92644062809095</v>
+        <v>25.14535677273102</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>46.94175457597559</v>
+        <v>25.14535681241328</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>53.37514239199225</v>
+        <v>25.14535682489809</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>47.68504895244388</v>
+        <v>25.14535681759953</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>58.94188656509648</v>
+        <v>25.14535683790385</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>63.22210155380741</v>
+        <v>25.14535684338756</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.91542584646831</v>
+        <v>25.14535678378042</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>52.90740606147082</v>
+        <v>25.14535683259906</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>60.82433046877176</v>
+        <v>25.14535684711174</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1.853971377909645</v>
+        <v>25.14535663558213</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>14.86475903611705</v>
+        <v>25.1453566691447</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>20.45562917796785</v>
+        <v>25.14535667998215</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-2.280597189001078</v>
+        <v>25.14535663480524</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>12.44350895303087</v>
+        <v>25.14535667281185</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>18.77891715960057</v>
+        <v>25.14535668508429</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>3.728515687751148</v>
+        <v>25.14535664421909</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>16.82236940203098</v>
+        <v>25.14535667809388</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>22.46442396810378</v>
+        <v>25.14535668903215</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>17.44664307433947</v>
+        <v>25.14535668855647</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.09702011204493</v>
+        <v>25.14535670561819</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>27.53599541050372</v>
+        <v>25.14535671086622</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>3.483103706166549</v>
+        <v>25.14535666194039</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>19.23029052332463</v>
+        <v>25.14535670335796</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.39188848578111</v>
+        <v>25.14535671618193</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>4.732908310742282</v>
+        <v>25.14535668878481</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>21.72640149237461</v>
+        <v>25.14535672648694</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.18313848068839</v>
+        <v>25.14535673912525</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-2.213831485847777</v>
+        <v>25.14535668572493</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>17.0260860491222</v>
+        <v>25.14535672841921</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>24.33757125254473</v>
+        <v>25.14535674273097</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>5.406717568072864</v>
+        <v>25.14535669930506</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>22.51886129968165</v>
+        <v>25.14535673735791</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.03039595624769</v>
+        <v>25.1453567501138</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.35658275982723</v>
+        <v>25.14535674561954</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.82929772884765</v>
+        <v>25.14535676567517</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>37.21092532276668</v>
+        <v>25.14535677164104</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>6.739340548432342</v>
+        <v>25.14535671494337</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>27.97069171441561</v>
+        <v>25.14535676195275</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>35.97962732169282</v>
+        <v>25.14535677671245</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>9.902177103255003</v>
+        <v>25.14535673149472</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.23315769200168</v>
+        <v>25.1453567690076</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>34.9117139129511</v>
+        <v>25.14535678119521</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3.689861846626503</v>
+        <v>25.14535672931759</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.43970012409712</v>
+        <v>25.14535677179756</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.0056830584839</v>
+        <v>25.14535678559893</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>12.31306177882971</v>
+        <v>25.1453567443376</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>30.77279263650333</v>
+        <v>25.14535678219945</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>37.50939282375884</v>
+        <v>25.14535679450043</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>32.67745257713404</v>
+        <v>25.14535678876775</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>42.81447519629619</v>
+        <v>25.14535680831576</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>47.21881945452732</v>
+        <v>25.14535681380283</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>14.02357449703092</v>
+        <v>25.14535675696882</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>37.05038398840267</v>
+        <v>25.14535680364871</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>45.22800725137631</v>
+        <v>25.14535681791784</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>6.804009708954917</v>
+        <v>25.14535664185002</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>21.30649254815295</v>
+        <v>25.14535667667504</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>26.61379915807674</v>
+        <v>25.14535668755823</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>2.546635476604639</v>
+        <v>25.14535664159079</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>18.95981913535936</v>
+        <v>25.14535668102701</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.97433686100391</v>
+        <v>25.14535669335124</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>9.339347269757583</v>
+        <v>25.14535665145877</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.9368983347888</v>
+        <v>25.14535668660776</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.29296706497431</v>
+        <v>25.14535669759218</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>23.67096202399797</v>
+        <v>25.14535669636678</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>30.91890838948498</v>
+        <v>25.1453567139012</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>34.16007492416465</v>
+        <v>25.14535671914231</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>8.317385164234739</v>
+        <v>25.14535666857901</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.74356459188741</v>
+        <v>25.14535671146591</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>32.61359960914207</v>
+        <v>25.14535672438021</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.31569394008882</v>
+        <v>25.1453566984557</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>31.82687953633025</v>
+        <v>25.14535673755453</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>37.81404607632922</v>
+        <v>25.14535675018296</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>5.962181557304037</v>
+        <v>25.1453566958409</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.92051660601853</v>
+        <v>25.14535674011681</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.70018580105966</v>
+        <v>25.14535675441737</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>14.70458227128557</v>
+        <v>25.14535671014904</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>33.3465157150087</v>
+        <v>25.14535674961159</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>39.38425127141718</v>
+        <v>25.14535676235749</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>33.36522006172257</v>
+        <v>25.1453567571462</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>43.43286866151719</v>
+        <v>25.14535677772277</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>47.51979807852535</v>
+        <v>25.14535678365034</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>15.3523887370254</v>
+        <v>25.14535672512347</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>38.26766540652927</v>
+        <v>25.14535677377721</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>45.77688692241094</v>
+        <v>25.14535678855885</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>17.75804443433544</v>
+        <v>25.14535674149687</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>37.55477372174123</v>
+        <v>25.14535678034227</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>43.77546164318046</v>
+        <v>25.14535679256099</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>10.99226243099204</v>
+        <v>25.14535673966672</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>33.40182307875183</v>
+        <v>25.14535678365564</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>40.44906882393765</v>
+        <v>25.14535679749225</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>20.74798304022094</v>
+        <v>25.14535675545425</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>40.68527167716975</v>
+        <v>25.145356794661</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>46.95968086106821</v>
+        <v>25.14535680699339</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>41.68915199020545</v>
+        <v>25.14535680049672</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>52.44294841770879</v>
+        <v>25.1453568205532</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>56.56815789296266</v>
+        <v>25.14535682602979</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>21.63555114950531</v>
+        <v>25.14535676737155</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>46.30235004238601</v>
+        <v>25.14535681562882</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>53.99672515855204</v>
+        <v>25.14535682997414</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>3.107121853820551</v>
+        <v>25.14535663404106</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>16.6375864466767</v>
+        <v>25.14535666839588</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>21.88947388752986</v>
+        <v>25.14535667935591</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-1.293387398398025</v>
+        <v>25.14535663339201</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.01848676513545</v>
+        <v>25.14535667229575</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>19.97032004925172</v>
+        <v>25.14535668470701</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>5.235279796951136</v>
+        <v>25.14535664296681</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>18.85231000733434</v>
+        <v>25.14535667764121</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>24.15256898152711</v>
+        <v>25.1453566887032</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.00498129158359</v>
+        <v>25.14535668820241</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.79141097262442</v>
+        <v>25.14535670558928</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.04698141537162</v>
+        <v>25.14535671088914</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>4.502443801247431</v>
+        <v>25.14535666098971</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.79398819938755</v>
+        <v>25.14535670334309</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.61086615088604</v>
+        <v>25.14535671634737</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.861957376391889</v>
+        <v>25.14535668815267</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>23.40155892550505</v>
+        <v>25.14535672673321</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.40555014040653</v>
+        <v>25.14535673947332</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-1.590022374084569</v>
+        <v>25.14535668505747</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>18.26761048799541</v>
+        <v>25.14535672874647</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>25.06667528402164</v>
+        <v>25.1453567431735</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>6.650840855013209</v>
+        <v>25.14535669894517</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>24.3127521434991</v>
+        <v>25.1453567378846</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>30.367708567482</v>
+        <v>25.14535675074323</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>24.80470496158534</v>
+        <v>25.14535674622526</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>34.42039952462749</v>
+        <v>25.14535676663711</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>38.53757107455219</v>
+        <v>25.14535677263003</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>7.657056941588104</v>
+        <v>25.14535671486433</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.46415008125748</v>
+        <v>25.14535676293258</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.98614229787653</v>
+        <v>25.1453567778414</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>11.86841898925125</v>
+        <v>25.14535673256231</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>30.80055042576974</v>
+        <v>25.14535677097178</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.00783386824263</v>
+        <v>25.14535678324793</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>5.041606579596014</v>
+        <v>25.14535673034243</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>26.47152494530239</v>
+        <v>25.1453567738377</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>33.50400744769198</v>
+        <v>25.14535678773934</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>14.35024164812357</v>
+        <v>25.14535674578394</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>33.41529885397502</v>
+        <v>25.1453567845507</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>39.676543818017</v>
+        <v>25.14535679694105</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.84993180843227</v>
+        <v>25.14535679110116</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>45.16877607519845</v>
+        <v>25.14535681099947</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>49.30609508668859</v>
+        <v>25.14535681651681</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>15.55613924204217</v>
+        <v>25.14535675854547</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>39.24120318889688</v>
+        <v>25.1453568063109</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>46.91053230324881</v>
+        <v>25.14535682072058</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-0.9591551640036968</v>
+        <v>25.14535662957216</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.60704962062623</v>
+        <v>25.14535666241998</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>16.60096397166664</v>
+        <v>25.14535667289535</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-5.728415964106876</v>
+        <v>25.14535662830582</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>8.492337137499218</v>
+        <v>25.14535666550302</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.15153328653796</v>
+        <v>25.14535667736543</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>0.2829815304256158</v>
+        <v>25.14535663716749</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>12.92897351565299</v>
+        <v>25.14535667032087</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.96869991829487</v>
+        <v>25.14535668089368</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>13.28919080696817</v>
+        <v>25.14535668080631</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>19.63534955080937</v>
+        <v>25.14535669744512</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.75325926601272</v>
+        <v>25.1453567025286</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-0.1891304601299133</v>
+        <v>25.14535665502626</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.93557297386896</v>
+        <v>25.14535669551509</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>21.40844653110421</v>
+        <v>25.14535670794293</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>2.807528219617179</v>
+        <v>25.14535668222281</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>19.22094212101008</v>
+        <v>25.14535671913546</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>24.96423496333884</v>
+        <v>25.14535673133373</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-4.902740631293103</v>
+        <v>25.14535667862447</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>13.68016414005181</v>
+        <v>25.14535672042473</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.18364339943166</v>
+        <v>25.14535673423817</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>2.800346194229242</v>
+        <v>25.14535669166218</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>19.32781027304479</v>
+        <v>25.14535672891821</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.1196184072803</v>
+        <v>25.14535674122995</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>20.00740775858511</v>
+        <v>25.14535673725932</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.05986470401652</v>
+        <v>25.14535675680295</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>33.02059772879705</v>
+        <v>25.14535676256056</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>3.943625813702667</v>
+        <v>25.14535670744495</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.34535454458458</v>
+        <v>25.1453567534256</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.53680839387377</v>
+        <v>25.14535676770114</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>8.947225429693383</v>
+        <v>25.14535672611236</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>26.71224468374037</v>
+        <v>25.14535676286652</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>32.63710090507483</v>
+        <v>25.14535677464086</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>1.782935086901908</v>
+        <v>25.14535672339589</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>21.89195649513397</v>
+        <v>25.14535676501668</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.60404285773765</v>
+        <v>25.14535677835005</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>10.5742279569851</v>
+        <v>25.14535673798184</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.46358597994918</v>
+        <v>25.1453567750779</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>34.43965829113915</v>
+        <v>25.14535678696176</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.01360042448569</v>
+        <v>25.14535678166833</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>39.73463786023743</v>
+        <v>25.1453568007361</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>43.70609205460351</v>
+        <v>25.14535680604163</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>11.8695185419401</v>
+        <v>25.14535675067053</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>34.08201073981705</v>
+        <v>25.14535679636739</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>41.40521457148608</v>
+        <v>25.14535681019249</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>7.316597062290883</v>
+        <v>25.14535664499537</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>21.59331848652293</v>
+        <v>25.14535668111577</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>27.79477146041384</v>
+        <v>25.14535669280971</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>3.393522238153501</v>
+        <v>25.14535664522373</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.54865580678846</v>
+        <v>25.14535668612683</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.57611392180679</v>
+        <v>25.14535669936916</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>10.12518448867875</v>
+        <v>25.14535665584424</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.49196111870194</v>
+        <v>25.14535669230064</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>30.7505425551201</v>
+        <v>25.14535670410336</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.47363446502852</v>
+        <v>25.14535670302599</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>31.77480410810922</v>
+        <v>25.14535672150456</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.86022598308953</v>
+        <v>25.14535672708654</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>9.877764419152605</v>
+        <v>25.14535667445386</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>27.05197594535719</v>
+        <v>25.14535671889526</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.0828079597059</v>
+        <v>25.14535673269968</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>10.29175383118042</v>
+        <v>25.14535670327452</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.98931320233339</v>
+        <v>25.14535674381543</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>35.98695810753179</v>
+        <v>25.14535675738835</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>3.124672326374608</v>
+        <v>25.14535670099232</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.2921242917173</v>
+        <v>25.14535674690126</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>32.21633013366679</v>
+        <v>25.14535676227137</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>11.52479362883735</v>
+        <v>25.1453567160273</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.35187075039445</v>
+        <v>25.14535675694534</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>37.40922077742454</v>
+        <v>25.14535677064451</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.66802660929529</v>
+        <v>25.14535676525228</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>41.15029963054396</v>
+        <v>25.14535678698049</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>46.20762494559659</v>
+        <v>25.1453567933243</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>13.2519771625199</v>
+        <v>25.14535673225492</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>36.55368095994794</v>
+        <v>25.14535678268629</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>45.29674264288248</v>
+        <v>25.14535679848398</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>15.44507762275548</v>
+        <v>25.14535674692579</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>35.4863886209205</v>
+        <v>25.1453567871088</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>42.7268091444727</v>
+        <v>25.14535680028948</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>8.80734054022702</v>
+        <v>25.14535674549462</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.49167041231333</v>
+        <v>25.14535679099826</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>39.69399184599041</v>
+        <v>25.14535680592421</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>18.26537911773764</v>
+        <v>25.14535676193049</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>38.44647781475302</v>
+        <v>25.1453568024873</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>45.74980649262956</v>
+        <v>25.1453568157906</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>39.84175458673258</v>
+        <v>25.14535680909755</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>50.99828402256529</v>
+        <v>25.1453568302038</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>56.0622856815057</v>
+        <v>25.14535683608313</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>20.25442095200347</v>
+        <v>25.14535677500292</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>45.30267571563278</v>
+        <v>25.14535682486321</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>54.26863408000447</v>
+        <v>25.14535684027329</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>8.723271344184717</v>
+        <v>25.14535664192513</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.7583545916696</v>
+        <v>25.14535667636319</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.18386033781907</v>
+        <v>25.14535668728032</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>4.792912791077171</v>
+        <v>25.14535664163279</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.67709695525826</v>
+        <v>25.1453566806308</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.82531078210231</v>
+        <v>25.14535669299348</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>11.44035891516155</v>
+        <v>25.14535665146436</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.56700249208698</v>
+        <v>25.14535668622278</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>31.04224820947236</v>
+        <v>25.14535669724146</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.5250431845255</v>
+        <v>25.14535669623126</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>32.58706545167965</v>
+        <v>25.14535671362687</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>35.90288650568841</v>
+        <v>25.14535671888937</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>10.54135525973545</v>
+        <v>25.14535666876449</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>27.48435670263616</v>
+        <v>25.14535671123787</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>34.47261629307185</v>
+        <v>25.1453567241813</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>11.33216728938534</v>
+        <v>25.14535669545251</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.29815867311603</v>
+        <v>25.1453567340584</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.49036324096299</v>
+        <v>25.1453567467626</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>4.390950204120525</v>
+        <v>25.145356692734</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.73226638777517</v>
+        <v>25.1453567364517</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.7441302603988</v>
+        <v>25.14535675083806</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>12.73256064445836</v>
+        <v>25.14535670683048</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>30.82518626799184</v>
+        <v>25.1453567457955</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>37.06982291708826</v>
+        <v>25.14535675861787</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>31.12229996941708</v>
+        <v>25.14535675362906</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>40.97427287327942</v>
+        <v>25.14535677403527</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>45.18245057577133</v>
+        <v>25.14535678000314</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>13.55227371581498</v>
+        <v>25.14535672206394</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>35.89749576300613</v>
+        <v>25.14535677017003</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>43.62142816003313</v>
+        <v>25.14535678502912</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>15.75704379705245</v>
+        <v>25.1453567381635</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>35.02744538575658</v>
+        <v>25.14535677654714</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>41.46523992423688</v>
+        <v>25.14535678881538</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>9.524070082560792</v>
+        <v>25.14535673628262</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>31.33786204905949</v>
+        <v>25.14535677974865</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.63109865626284</v>
+        <v>25.14535679364133</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>18.85834494572171</v>
+        <v>25.14535675184164</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>38.26524923246227</v>
+        <v>25.14535679058233</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>44.75884448658008</v>
+        <v>25.1453568029647</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>39.63450470721736</v>
+        <v>25.14535679672967</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>50.16541648551657</v>
+        <v>25.14535681661534</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>54.40458939266668</v>
+        <v>25.14535682211772</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>20.03067468582392</v>
+        <v>25.14535676405364</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.14751369276456</v>
+        <v>25.14535681179603</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>52.06290796768151</v>
+        <v>25.14535682618434</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>11.5034818545244</v>
+        <v>25.14535665525682</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.86275316407695</v>
+        <v>25.14535669203944</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.10687190284597</v>
+        <v>25.14535670378097</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>8.214791620891793</v>
+        <v>25.14535665638801</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.59577405419106</v>
+        <v>25.14535669804102</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>32.67188919758312</v>
+        <v>25.14535671133725</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>15.26471069769208</v>
+        <v>25.14535666739969</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>30.72305669861544</v>
+        <v>25.14535670452448</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>37.02486610387943</v>
+        <v>25.14535671637524</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>30.26644766115423</v>
+        <v>25.14535671449607</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>38.04571657225165</v>
+        <v>25.14535673324237</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>42.12137937019055</v>
+        <v>25.1453567388059</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>14.68782284352521</v>
+        <v>25.1453566851196</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.13865055416949</v>
+        <v>25.14535673034321</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>41.23920292199596</v>
+        <v>25.14535674421646</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>15.251098484049</v>
+        <v>25.14535671431843</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.03977344620888</v>
+        <v>25.14535675554903</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>41.99742455265535</v>
+        <v>25.14535676914846</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>8.607691512980532</v>
+        <v>25.14535671290615</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>31.01074085319907</v>
+        <v>25.14535675959611</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>38.88984207390927</v>
+        <v>25.14535677499624</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>17.4371878055788</v>
+        <v>25.14535672840395</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>37.36453377919783</v>
+        <v>25.1453567700181</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>44.38163639543045</v>
+        <v>25.14535678374403</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>37.25577601003919</v>
+        <v>25.14535677760535</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>48.2220523468903</v>
+        <v>25.14535679962217</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>53.24100983964921</v>
+        <v>25.14535680594496</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>18.88367481083909</v>
+        <v>25.14535674378232</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>43.47284720159267</v>
+        <v>25.14535679503479</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>52.18802202276662</v>
+        <v>25.14535681087434</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>19.54568550607321</v>
+        <v>25.14535675663934</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>40.59858663216042</v>
+        <v>25.14535679745623</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>47.82001768965448</v>
+        <v>25.14535681067954</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>13.45825310451764</v>
+        <v>25.1453567559984</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>37.28819988886571</v>
+        <v>25.14535680221985</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>45.46915704753134</v>
+        <v>25.14535681719407</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>23.29389583503805</v>
+        <v>25.14535677284211</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>44.49514245101537</v>
+        <v>25.14535681403869</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>51.7793337912818</v>
+        <v>25.14535682738501</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>45.50204878194139</v>
+        <v>25.14535681999902</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>57.1334924079389</v>
+        <v>25.14535684137432</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>62.17535491160044</v>
+        <v>25.14535684724538</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>25.02501244284018</v>
+        <v>25.14535678515423</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>51.270237591385</v>
+        <v>25.14535683577064</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>60.23086035034487</v>
+        <v>25.14535685124252</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>9.273114877730464</v>
+        <v>25.14535665450923</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>23.64914175503591</v>
+        <v>25.14535668951595</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.80416730592778</v>
+        <v>25.14535670077299</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>5.665019772100603</v>
+        <v>25.14535665529861</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>21.93266699071431</v>
+        <v>25.14535669494057</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.90742618235731</v>
+        <v>25.14535670768815</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>12.32547662328651</v>
+        <v>25.14535666561126</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>26.79268447686113</v>
+        <v>25.14535670094363</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>33.00434827366465</v>
+        <v>25.14535671230538</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.57021310645293</v>
+        <v>25.14535671085585</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>33.9418949706577</v>
+        <v>25.14535672877437</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>38.02426460774325</v>
+        <v>25.14535673412938</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>12.00517674189538</v>
+        <v>25.14535668310872</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.26179821563668</v>
+        <v>25.14535672612966</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>37.24986199048593</v>
+        <v>25.14535673942742</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>13.69977880559545</v>
+        <v>25.14535671185365</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.4547649637616</v>
+        <v>25.14535675110727</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>39.35949210358409</v>
+        <v>25.14535676416856</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>6.81951734659469</v>
+        <v>25.14535671025006</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.05192383980661</v>
+        <v>25.14535675470126</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>35.87075994770358</v>
+        <v>25.14535676949199</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>15.20783419272028</v>
+        <v>25.14535672483103</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>34.09305226203641</v>
+        <v>25.1453567644498</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>41.05658105535807</v>
+        <v>25.14535677763259</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>34.19306607493639</v>
+        <v>25.14535677202038</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>44.7260533030915</v>
+        <v>25.14535679308355</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>49.76012913958146</v>
+        <v>25.14535679917763</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>16.83347569276849</v>
+        <v>25.14535673997617</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>40.15625609091049</v>
+        <v>25.14535678875814</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>48.79982592244513</v>
+        <v>25.14535680396158</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>18.10628901640365</v>
+        <v>25.14535675294528</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>38.13105060166696</v>
+        <v>25.14535679179611</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>45.28711615551522</v>
+        <v>25.14535680451273</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>11.71696849311993</v>
+        <v>25.14535675211531</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>34.38260456651944</v>
+        <v>25.14535679611039</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.48910794153165</v>
+        <v>25.14535681051082</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>21.12600012053912</v>
+        <v>25.14535676799816</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>41.29070149156701</v>
+        <v>25.14535680721039</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>48.5087267299913</v>
+        <v>25.14535682004531</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>42.46930404241874</v>
+        <v>25.14535681321441</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>53.64872933991532</v>
+        <v>25.14535683365994</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>58.69437944778076</v>
+        <v>25.14535683932147</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>23.01702001140159</v>
+        <v>25.1453567801737</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>47.98778922159933</v>
+        <v>25.14535682833261</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>56.87147856373225</v>
+        <v>25.14535684320819</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>7.887539310109783</v>
+        <v>25.14535664429897</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>23.02124083722085</v>
+        <v>25.14535668077944</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.98743061070287</v>
+        <v>25.1453566923144</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>4.028117928703175</v>
+        <v>25.14535664451076</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>21.15522979443784</v>
+        <v>25.14535668582161</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.91608200707776</v>
+        <v>25.14535669888391</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>11.04849055437978</v>
+        <v>25.14535665518199</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>26.28089043769482</v>
+        <v>25.14535669200182</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>32.30178498318422</v>
+        <v>25.14535670364407</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.20492592792981</v>
+        <v>25.14535670224032</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>33.84151808508098</v>
+        <v>25.1453567206873</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>37.50515093977138</v>
+        <v>25.14535672622419</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>10.29082192845325</v>
+        <v>25.14535667306957</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.55967004212633</v>
+        <v>25.14535671802615</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>36.24445852025694</v>
+        <v>25.14535673168633</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.19290823426299</v>
+        <v>25.14535670162219</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.53899061343096</v>
+        <v>25.1453567425174</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>37.26348584676128</v>
+        <v>25.1453567559067</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>4.172118646705194</v>
+        <v>25.14535669934251</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>26.07542835003741</v>
+        <v>25.14535674565266</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.689941452623</v>
+        <v>25.14535676081484</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>12.96035733011079</v>
+        <v>25.14535671449731</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.44279041625379</v>
+        <v>25.14535675577294</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.22418592278319</v>
+        <v>25.1453567692868</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>32.67731950798633</v>
+        <v>25.14535676368594</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>43.32104659630188</v>
+        <v>25.14535678533307</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>47.93457045085515</v>
+        <v>25.145356791617</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>14.06526003324229</v>
+        <v>25.14535673015342</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>38.13470440690693</v>
+        <v>25.14535678106959</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>46.53263705252239</v>
+        <v>25.14535679671613</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>15.53112564436638</v>
+        <v>25.14535674530829</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.19562825130202</v>
+        <v>25.14535678589964</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>43.19004297758542</v>
+        <v>25.1453567988638</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>9.248146491659297</v>
+        <v>25.14535674385183</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>32.63959973337727</v>
+        <v>25.14535678981789</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.5631929882593</v>
+        <v>25.14535680449864</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>19.04692439585119</v>
+        <v>25.14535676045326</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>39.85778161618264</v>
+        <v>25.14535680142221</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>46.91271364466577</v>
+        <v>25.14535681450698</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>41.28563237045202</v>
+        <v>25.14535680763126</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>52.62763320527631</v>
+        <v>25.14535682870521</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>57.27754368371114</v>
+        <v>25.14535683450978</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>20.56544433024757</v>
+        <v>25.14535677299741</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>46.41313883955509</v>
+        <v>25.14535682343989</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>55.0322084562374</v>
+        <v>25.14535683863244</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>5.04649220317841</v>
+        <v>25.14535664503447</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>18.36309332634323</v>
+        <v>25.14535667890979</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>24.07877725674107</v>
+        <v>25.1453566899182</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1.27439559662001</v>
+        <v>25.14535664500628</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>16.34322593987258</v>
+        <v>25.14535668336704</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.82009360586535</v>
+        <v>25.14535669583307</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>7.489634045325516</v>
+        <v>25.14535665480934</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>20.89028228859242</v>
+        <v>25.14535668899978</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.65860159778984</v>
+        <v>25.14535670011059</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>20.96524524806589</v>
+        <v>25.14535669926297</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.72181105759022</v>
+        <v>25.14535671662463</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.47738682729238</v>
+        <v>25.14535672187762</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>7.131045817868454</v>
+        <v>25.14535667246317</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>23.14823643126574</v>
+        <v>25.14535671419181</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.56636845510923</v>
+        <v>25.14535672718944</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>8.349718491615263</v>
+        <v>25.14535670018096</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.87295016562499</v>
+        <v>25.1453567382457</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.43202165700273</v>
+        <v>25.14535675102708</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1.620040461981212</v>
+        <v>25.14535669783079</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>21.45832314734678</v>
+        <v>25.14535674093568</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.88572379293193</v>
+        <v>25.14535675540946</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>9.402436487332915</v>
+        <v>25.1453567118171</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.04729975887089</v>
+        <v>25.14535675023593</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>33.66226913466139</v>
+        <v>25.14535676313622</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.39143021514935</v>
+        <v>25.14535675822141</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>37.15461528135199</v>
+        <v>25.14535677864179</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>41.88056329698428</v>
+        <v>25.14535678461994</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>10.86505631159821</v>
+        <v>25.14535672726148</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>32.71613267838539</v>
+        <v>25.14535677466106</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>40.91576580541734</v>
+        <v>25.14535678954585</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>13.16620918620439</v>
+        <v>25.14535674145176</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.99797808283929</v>
+        <v>25.14535677921207</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>38.77568918572491</v>
+        <v>25.14535679161924</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>6.937241336378685</v>
+        <v>25.14535673990594</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.25285543321804</v>
+        <v>25.14535678266609</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>35.93087618921877</v>
+        <v>25.1453567967161</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>15.70171346517821</v>
+        <v>25.14535675521993</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.66516788036336</v>
+        <v>25.1453567933315</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>41.50175025456113</v>
+        <v>25.14535680585409</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.94118419707643</v>
+        <v>25.14535679966651</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>46.35914496536284</v>
+        <v>25.14535681952016</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>51.10255258918257</v>
+        <v>25.14535682505772</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>17.37678414218439</v>
+        <v>25.14535676765576</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.92627786762195</v>
+        <v>25.14535681455743</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>49.32865448679219</v>
+        <v>25.14535682907179</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>8.125797895723824</v>
+        <v>25.14535665279282</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.2656303664952</v>
+        <v>25.14535668757252</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.43074581945416</v>
+        <v>25.1453566988063</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>4.434008278046345</v>
+        <v>25.14535665344092</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>20.43423476857863</v>
+        <v>25.14535669282582</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.42040641389132</v>
+        <v>25.14535670554706</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>10.99648777283969</v>
+        <v>25.14535666366149</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.22563622701901</v>
+        <v>25.14535669876473</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>31.4474905549394</v>
+        <v>25.14535671010301</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.13749242624788</v>
+        <v>25.1453567088185</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>32.40626089252299</v>
+        <v>25.14535672665233</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>36.50645869639916</v>
+        <v>25.14535673200112</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>10.80719637957807</v>
+        <v>25.14535668130073</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>27.79649126316026</v>
+        <v>25.14535672405949</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>35.78867356030705</v>
+        <v>25.14535673732127</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>11.97006420704935</v>
+        <v>25.14535670959715</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>30.48907812663672</v>
+        <v>25.14535674860792</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>37.43688248876179</v>
+        <v>25.14535676165479</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>5.055328217268446</v>
+        <v>25.1453567078685</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>26.02057543095101</v>
+        <v>25.14535675204469</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>33.88825924916053</v>
+        <v>25.14535676681909</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>13.29847065300993</v>
+        <v>25.14535672232091</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.94586311161887</v>
+        <v>25.14535676169456</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>38.9529141226933</v>
+        <v>25.1453567748628</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.17163387793383</v>
+        <v>25.14535676941118</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>42.60215493742049</v>
+        <v>25.14535679038125</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>47.6700272821595</v>
+        <v>25.14535679647258</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>15.04332534386297</v>
+        <v>25.14535673761734</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>38.10258905362155</v>
+        <v>25.14535678611508</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>46.78827878905211</v>
+        <v>25.1453568012939</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>16.5620569999664</v>
+        <v>25.14535675068829</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>36.36534116201652</v>
+        <v>25.14535678930887</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>43.55896291181067</v>
+        <v>25.14535680200391</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>10.14366763939553</v>
+        <v>25.14535674975008</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>32.55855230453679</v>
+        <v>25.14535679348442</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>40.70765846308862</v>
+        <v>25.14535680786042</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>19.40985953375553</v>
+        <v>25.14535676550076</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>39.35133872153433</v>
+        <v>25.1453568044806</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>46.60733603026824</v>
+        <v>25.14535681729375</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>40.64898705479362</v>
+        <v>25.14535681062446</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>51.72364100278343</v>
+        <v>25.14535683097862</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>56.79931731375061</v>
+        <v>25.14535683663386</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>21.41976684028519</v>
+        <v>25.14535677782572</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>46.13983688725</v>
+        <v>25.14535682571332</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>55.06074348551958</v>
+        <v>25.14535684055618</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>11.85199732745808</v>
+        <v>25.14535665552124</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>26.23768537560072</v>
+        <v>25.14535669049249</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>32.01900745946742</v>
+        <v>25.1453567016604</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>8.929628088230601</v>
+        <v>25.14535665639932</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>25.20808671261782</v>
+        <v>25.14535669600112</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.7597237041286</v>
+        <v>25.14535670864777</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>15.63190983981978</v>
+        <v>25.14535666673271</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>30.10961952594577</v>
+        <v>25.14535670202928</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>35.94429722676213</v>
+        <v>25.14535671330107</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.83993283960272</v>
+        <v>25.14535671169036</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>37.12334014347599</v>
+        <v>25.14535672944285</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>40.80220498823235</v>
+        <v>25.14535673476368</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>14.84200138993846</v>
+        <v>25.14535668366662</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>32.10465991185583</v>
+        <v>25.14535672667941</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>39.65239990251629</v>
+        <v>25.14535673992494</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>16.1260196780861</v>
+        <v>25.14535671164569</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>34.69494545696932</v>
+        <v>25.14535675087236</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>41.11757719222106</v>
+        <v>25.14535676379078</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>10.05238012472579</v>
+        <v>25.14535671007548</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>31.07376290062745</v>
+        <v>25.14535675449615</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>38.34686302295616</v>
+        <v>25.14535676912511</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>18.51189215957727</v>
+        <v>25.14535672472367</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>37.21013296313983</v>
+        <v>25.14535676431523</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>43.68748261017316</v>
+        <v>25.14535677735383</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>37.2165730827208</v>
+        <v>25.14535677169678</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>47.50232266151104</v>
+        <v>25.14535679254418</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>52.03025668267526</v>
+        <v>25.14535679856571</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>19.55557642862252</v>
+        <v>25.14535673946374</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>42.60364795208841</v>
+        <v>25.14535678824766</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>50.68755831011975</v>
+        <v>25.14535680334404</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>19.95769174780823</v>
+        <v>25.14535675264703</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>39.77276950286024</v>
+        <v>25.14535679154927</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>46.459804282881</v>
+        <v>25.14535680406843</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>14.50298059039953</v>
+        <v>25.14535675180927</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>36.93091620926869</v>
+        <v>25.14535679586255</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>44.50660511195258</v>
+        <v>25.14535681003939</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>23.87060111726904</v>
+        <v>25.14535676780078</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>43.8244981721131</v>
+        <v>25.1453568070649</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>50.56965874034529</v>
+        <v>25.14535681970052</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>44.9093730775256</v>
+        <v>25.14535681281931</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>55.84604680115054</v>
+        <v>25.14535683308962</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>60.41441242180427</v>
+        <v>25.14535683866514</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>25.21638963668865</v>
+        <v>25.14535677956194</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>49.93959764853783</v>
+        <v>25.14535682784202</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>58.253172999889</v>
+        <v>25.14535684252573</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>8.495988854587317</v>
+        <v>25.14535664704324</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>23.67701573782086</v>
+        <v>25.14535668344922</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>29.67773105385013</v>
+        <v>25.14535669493755</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>4.913486913748599</v>
+        <v>25.14535664749312</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>22.0938669359187</v>
+        <v>25.14535668871962</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.89393341591931</v>
+        <v>25.14535670172912</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>11.89287486931446</v>
+        <v>25.14535665818385</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>27.17288252855072</v>
+        <v>25.14535669492849</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>33.22864377180846</v>
+        <v>25.14535670652368</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>27.09813633659778</v>
+        <v>25.14535670504482</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>34.78493938872229</v>
+        <v>25.14535672347323</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>38.47520467478431</v>
+        <v>25.14535672897297</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>11.20081172440913</v>
+        <v>25.14535667591504</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.52762203666717</v>
+        <v>25.14535672076954</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>37.25843609883306</v>
+        <v>25.14535673437312</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>11.79582039354398</v>
+        <v>25.14535670438303</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>31.1964061334961</v>
+        <v>25.14535674519261</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>37.94297995432774</v>
+        <v>25.14535675852263</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>5.052083705151393</v>
+        <v>25.1453567023434</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>27.01680524135965</v>
+        <v>25.14535674855659</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.65640802208501</v>
+        <v>25.14535676365163</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>13.78997027017338</v>
+        <v>25.14535671750622</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>33.32728324832095</v>
+        <v>25.14535675869543</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>40.13095621188582</v>
+        <v>25.14535677214945</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>33.5585283213679</v>
+        <v>25.14535676648814</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>44.27513704951832</v>
+        <v>25.14535678811787</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>48.90174017910932</v>
+        <v>25.14535679435952</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>14.98029868272209</v>
+        <v>25.14535673300796</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>39.12691757246643</v>
+        <v>25.14535678381269</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>47.5481597933686</v>
+        <v>25.14535679938153</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>15.84226763102417</v>
+        <v>25.14535674743283</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>36.52591011306478</v>
+        <v>25.14535678791462</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>43.55066100767462</v>
+        <v>25.145356800836</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>9.793513221259166</v>
+        <v>25.14535674618453</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>33.2063912676531</v>
+        <v>25.14535679202652</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>41.16440902577165</v>
+        <v>25.14535680665882</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>19.5137668701353</v>
+        <v>25.14535676275545</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>40.34388193254237</v>
+        <v>25.14535680361382</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>47.42941367714494</v>
+        <v>25.1453568166554</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>41.78819138260054</v>
+        <v>25.14535680973574</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>53.17864675116959</v>
+        <v>25.14535683078014</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>57.85246478057068</v>
+        <v>25.14535683655338</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>21.13070588579127</v>
+        <v>25.14535677518112</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>47.00204381677207</v>
+        <v>25.14535682547953</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>55.66141864267854</v>
+        <v>25.14535684061716</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.145</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.394</v>
+        <v>18.164</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.322</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.339</v>
+        <v>18.238</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.04</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.992</v>
+        <v>14.275</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25.14535664810479</v>
+        <v>1.813385208280415</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.14535668381777</v>
+        <v>22.43942707762704</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.14535669538726</v>
+        <v>28.80070844272723</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.14535664854195</v>
+        <v>3.129979537153652</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.14535668898368</v>
+        <v>20.73073641330811</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.14535670208509</v>
+        <v>26.08887036755958</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.14535665905067</v>
+        <v>11.82506378160536</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.14535669509586</v>
+        <v>29.71742270586332</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.14535670677298</v>
+        <v>35.82506853624314</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.14535670557571</v>
+        <v>30.65135454475404</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.14535672388211</v>
+        <v>36.2210917145575</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25.14535672939491</v>
+        <v>41.66508956276549</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.14535667729359</v>
+        <v>8.470195359001773</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.14535672122076</v>
+        <v>27.83861294153128</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.14535673487205</v>
+        <v>35.74286093581694</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.14535670647845</v>
+        <v>6.393110683227938</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.14535674656789</v>
+        <v>29.42028653510892</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.14535676000535</v>
+        <v>38.54073509563366</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25.14535670448689</v>
+        <v>3.114579112282144</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.14535674988458</v>
+        <v>22.38526485245339</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.1453567651013</v>
+        <v>30.31071328467847</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25.14535671936587</v>
+        <v>13.11019449469978</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.14535675982824</v>
+        <v>33.36321685398539</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.1453567733907</v>
+        <v>42.01536028064827</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.14535676790231</v>
+        <v>35.6545864341622</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.14535678943684</v>
+        <v>44.33165765453212</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25.14535679571132</v>
+        <v>52.57666269197685</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.14535673522433</v>
+        <v>12.46337781705482</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.14535678508203</v>
+        <v>37.8798231807956</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25.14535680071323</v>
+        <v>47.12312628454591</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.1453567490281</v>
+        <v>10.48660623076646</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.14535678874126</v>
+        <v>36.17300539098941</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25.14535680180017</v>
+        <v>46.8462140660166</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25.14535674786754</v>
+        <v>7.246519165857556</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25.14535679283912</v>
+        <v>29.27933515599099</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.14535680762716</v>
+        <v>38.63264343913136</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25.14535676409429</v>
+        <v>20.54959586092404</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25.14535680417688</v>
+        <v>43.41478160859994</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.14535681735727</v>
+        <v>53.50861478599955</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25.1453568106059</v>
+        <v>50.52350523878104</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>25.14535683151524</v>
+        <v>60.18374282905965</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>25.14535683733435</v>
+        <v>69.04069773393739</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.14535677687721</v>
+        <v>22.26152986622832</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>25.14535682613856</v>
+        <v>50.88681618921131</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25.14535684140138</v>
+        <v>62.4340917467363</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>25.14535664544874</v>
+        <v>7.013312848699634</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.14535668171923</v>
+        <v>29.76214905012311</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.14535669311698</v>
+        <v>35.61468156262099</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.14535664582711</v>
+        <v>9.952453977417049</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.14535668690018</v>
+        <v>29.76223934316577</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.14535669980711</v>
+        <v>34.60729518166821</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.14535665631989</v>
+        <v>19.60376323038952</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.14535669292779</v>
+        <v>39.57144212851092</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.14535670443157</v>
+        <v>45.20476380370675</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25.14535670280163</v>
+        <v>40.31647008490875</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25.14535672107301</v>
+        <v>47.04335232751569</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>25.14535672652822</v>
+        <v>51.52302211723758</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>25.14535667368565</v>
+        <v>15.44609755884473</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25.14535671837492</v>
+        <v>37.43904991579419</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.14535673189899</v>
+        <v>44.58747112140503</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.14535670200089</v>
+        <v>7.769270084642457</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25.14535674265733</v>
+        <v>33.0060277508563</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>25.14535675586919</v>
+        <v>41.18670145013932</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>25.14535669982892</v>
+        <v>6.071854428344754</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.14535674586868</v>
+        <v>27.67731341287402</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.14535676082993</v>
+        <v>34.59927906093084</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.14535671483591</v>
+        <v>16.88764430988828</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25.14535675587055</v>
+        <v>39.29654017479234</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>25.14535676920531</v>
+        <v>47.07293540488144</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>25.14535676350048</v>
+        <v>41.51365223937779</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.14535678491882</v>
+        <v>51.40509474792525</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.14535679109134</v>
+        <v>58.45629944376233</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.14535673009028</v>
+        <v>15.94894051574206</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.14535678070965</v>
+        <v>44.19189221110496</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.14535679617267</v>
+        <v>52.25585379871838</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.14535674570643</v>
+        <v>13.21904160318487</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>25.14535678609919</v>
+        <v>41.33308946457593</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>25.14535679886086</v>
+        <v>51.13542358615396</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.1453567443344</v>
+        <v>11.20778289316116</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25.14535679007557</v>
+        <v>35.8249057841369</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>25.14535680452702</v>
+        <v>44.22840215169632</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.14535676083654</v>
+        <v>25.51763079463328</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.14535680160505</v>
+        <v>50.74819667820117</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>25.14535681448544</v>
+        <v>60.04494074009094</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.14535680750048</v>
+        <v>57.48990411659252</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.14535682836289</v>
+        <v>68.54746957994348</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25.14535683406127</v>
+        <v>76.05485146869572</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.14535677297327</v>
+        <v>26.82416791015229</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.14535682317565</v>
+        <v>58.61447399740081</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>25.1453568381555</v>
+        <v>68.91886549470254</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>25.14535664471279</v>
+        <v>5.567882323965925</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.14535668098735</v>
+        <v>27.97626378885912</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.1453566923718</v>
+        <v>33.61632310566912</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.14535664501318</v>
+        <v>8.209329545421392</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.14535668609086</v>
+        <v>27.6652528923025</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.14535669898272</v>
+        <v>32.25054240396304</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25.14535665552708</v>
+        <v>17.89929206334038</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.14535669213908</v>
+        <v>37.52716098215361</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>25.14535670362943</v>
+        <v>42.96019666836449</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.14535670214731</v>
+        <v>38.56418409489808</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.14535672041593</v>
+        <v>45.15315063034612</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>25.14535672587948</v>
+        <v>49.51280727727229</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>25.14535667305561</v>
+        <v>14.00654350980189</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.14535671775012</v>
+        <v>35.62350902790401</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>25.14535673126127</v>
+        <v>42.51652532074031</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.14535670192948</v>
+        <v>9.111866846499737</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.14535674261531</v>
+        <v>34.13172888899103</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>25.14535675580918</v>
+        <v>42.04976628005527</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25.14535669972977</v>
+        <v>7.146257803643554</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.14535674580281</v>
+        <v>28.52119930067038</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>25.14535676074369</v>
+        <v>35.13103306241869</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>25.14535671478536</v>
+        <v>18.17956227755371</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.14535675584967</v>
+        <v>40.36717459490617</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>25.14535676916627</v>
+        <v>47.89670086816348</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>25.14535676357136</v>
+        <v>42.62631418176222</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>25.14535678499774</v>
+        <v>52.38036582037564</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>25.14535679117038</v>
+        <v>59.27978737740299</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.14535673014587</v>
+        <v>17.25324147872221</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.14535678079736</v>
+        <v>45.2071280713083</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>25.14535679624293</v>
+        <v>52.97115322303516</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>25.14535674570689</v>
+        <v>14.23434617174276</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.14535678613262</v>
+        <v>42.11277304862203</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>25.14535679887799</v>
+        <v>51.69396563816284</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>25.14535674431075</v>
+        <v>11.86710563957567</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>25.14535679008926</v>
+        <v>36.24327295740888</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>25.14535680452225</v>
+        <v>44.37182726796778</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.14535676085818</v>
+        <v>26.39282087455871</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>25.14535680165997</v>
+        <v>51.37986972017433</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>25.1453568145239</v>
+        <v>60.47209078055666</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>25.14535680763263</v>
+        <v>58.18536495406171</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>25.14535682850361</v>
+        <v>69.11020672567705</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>25.1453568342023</v>
+        <v>76.48571538965605</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.14535677307897</v>
+        <v>27.68128556794642</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>25.14535682331933</v>
+        <v>59.17982885120466</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>25.1453568382826</v>
+        <v>69.2260450510698</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>25.14535664376937</v>
+        <v>-0.02832942097629498</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.14535667923174</v>
+        <v>20.11153155069458</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.14535669069168</v>
+        <v>26.13998003361693</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>25.14535664391777</v>
+        <v>1.130606312072004</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.14535668407571</v>
+        <v>18.22984796529492</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.14535669705307</v>
+        <v>23.29826840609991</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>25.1453566541688</v>
+        <v>9.473267854005103</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.14535668996105</v>
+        <v>26.90452197793594</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.14535670152761</v>
+        <v>32.67859668485252</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.14535670062044</v>
+        <v>27.5998350343507</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.14535671878875</v>
+        <v>32.96281410049835</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.1453567242647</v>
+        <v>38.26542437213897</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>25.14535667272046</v>
+        <v>6.406673737223681</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.14535671632398</v>
+        <v>25.31989492711239</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.14535672985349</v>
+        <v>32.71641440623013</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>25.1453567019019</v>
+        <v>3.403810337669022</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.14535674171153</v>
+        <v>25.86138223710475</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>25.14535675502867</v>
+        <v>34.54628366308633</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>25.14535669957952</v>
+        <v>0.002970026543643201</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.14535674466034</v>
+        <v>18.69470394583372</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.14535675974081</v>
+        <v>26.21022166152452</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>25.14535675438329</v>
+        <v>29.25384244188363</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.14535676782432</v>
+        <v>37.481570750383</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.14535676264482</v>
+        <v>31.36548896239804</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.14535678401367</v>
+        <v>39.82023946661382</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>25.14535679024685</v>
+        <v>47.83017340451337</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>25.14535673034046</v>
+        <v>9.175804050801258</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.1453567798363</v>
+        <v>33.9978789230058</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>25.14535679533417</v>
+        <v>42.62752935053125</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.14535674521324</v>
+        <v>8.244520989589361</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.145356784657</v>
+        <v>33.34946943107043</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.14535679760898</v>
+        <v>43.62210761892955</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>25.1453567437351</v>
+        <v>4.786731424836248</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25.14535678840161</v>
+        <v>26.23067095298097</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.14535680306857</v>
+        <v>35.20040227502319</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.14535675975759</v>
+        <v>17.67861730112319</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.14535679956827</v>
+        <v>39.98109131956318</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>25.14535681264073</v>
+        <v>49.68598627656478</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>25.14535680616087</v>
+        <v>46.7680367651469</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>25.14535682691878</v>
+        <v>56.2245377318212</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>25.14535683270177</v>
+        <v>64.83697697255913</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.14535677277521</v>
+        <v>19.53575658319897</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25.14535682169133</v>
+        <v>47.58214187128206</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>25.14535683683846</v>
+        <v>58.51667703580807</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>25.14535665312692</v>
+        <v>6.074240733882597</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.14535668880882</v>
+        <v>27.5822309175104</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>25.1453567001988</v>
+        <v>33.86125682275214</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.14535665386013</v>
+        <v>8.151427346574103</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.14535669426668</v>
+        <v>26.63327613059527</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.1453567071648</v>
+        <v>31.95201530143382</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>25.14535666439737</v>
+        <v>17.23432990280172</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.1453567004112</v>
+        <v>35.99720533181649</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.14535671190712</v>
+        <v>42.03030168464999</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.14535671029409</v>
+        <v>36.48442921975906</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.14535672850669</v>
+        <v>42.41094252392355</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.14535673392047</v>
+        <v>47.66069948301422</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.14535668193991</v>
+        <v>13.4793364248482</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.14535672578094</v>
+        <v>33.67813678618964</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.14535673923154</v>
+        <v>41.3330110998663</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25.14535671199355</v>
+        <v>12.9546671138588</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.14535675202051</v>
+        <v>36.94930359032814</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.14535676522812</v>
+        <v>45.6969104909069</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.14535671031312</v>
+        <v>10.50309760029408</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.14535675564006</v>
+        <v>30.75665805103493</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.14535677059649</v>
+        <v>38.3395434324899</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>25.14535676565576</v>
+        <v>42.23716478870301</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.14535677898622</v>
+        <v>50.52932623980553</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.14535677318541</v>
+        <v>44.22365200139233</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>25.1453567945917</v>
+        <v>53.28385808638876</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.14535680075106</v>
+        <v>61.16804183102601</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.14535674044982</v>
+        <v>20.26384746633672</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>25.14535679017679</v>
+        <v>46.59365972792621</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.14535680555106</v>
+        <v>55.30491895961516</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.14535675368898</v>
+        <v>15.82790307520888</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>25.14535679330093</v>
+        <v>42.34898124744323</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.14535680616918</v>
+        <v>52.72104070486571</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.1453567527728</v>
+        <v>13.34380905612898</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>25.14535679762978</v>
+        <v>36.23555138788911</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>25.14535681220191</v>
+        <v>45.30415200590761</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.14535676904305</v>
+        <v>27.12850419009414</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.1453568090235</v>
+        <v>50.80607374714253</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.14535682201144</v>
+        <v>60.61140739300063</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>25.14535681497085</v>
+        <v>57.65472338196436</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>25.14535683575865</v>
+        <v>67.67946824375636</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.14535684148436</v>
+        <v>76.18726064283479</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>25.14535678123342</v>
+        <v>28.75624972400995</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25.14535683032653</v>
+        <v>58.20558236685308</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.14535684537828</v>
+        <v>69.27603042642515</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>25.14535665643657</v>
+        <v>5.551249171856906</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.14535669084483</v>
+        <v>27.53620065231802</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>25.14535670157327</v>
+        <v>33.02766021471964</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>25.14535665728816</v>
+        <v>8.594364783160511</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.14535669625242</v>
+        <v>27.82005075440866</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.14535670840142</v>
+        <v>32.3990897764516</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.1453566673167</v>
+        <v>17.86459417932237</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.14535670204504</v>
+        <v>37.20075193520667</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.14535671287328</v>
+        <v>42.49129478720121</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>25.14535671084147</v>
+        <v>37.57689118514465</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.14535672816889</v>
+        <v>44.0108760260227</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>25.14535673325674</v>
+        <v>48.32007083269487</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25.14535668309147</v>
+        <v>13.56054900970427</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>25.14535672538942</v>
+        <v>34.47860410971909</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>25.14535673810777</v>
+        <v>41.22927736666968</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>25.1453567128604</v>
+        <v>14.06401764026567</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.1453567515012</v>
+        <v>38.72970812832827</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>25.14535676387838</v>
+        <v>46.196425973734</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>25.14535671137672</v>
+        <v>12.68157541636014</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.14535675513396</v>
+        <v>33.92847393940018</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.14535676915</v>
+        <v>40.28950441077019</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.1453567257872</v>
+        <v>23.63557173877785</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.14535676478745</v>
+        <v>45.595490348236</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>25.14535677727977</v>
+        <v>52.67066067955035</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>25.14535677142114</v>
+        <v>47.32702250876427</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.1453567917527</v>
+        <v>56.85799952991399</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>25.14535679750368</v>
+        <v>63.4598669468125</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>25.14535673950923</v>
+        <v>22.52683018747103</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.14535678753474</v>
+        <v>49.69820807327899</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25.14535680200224</v>
+        <v>57.10445208582419</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.1453567530787</v>
+        <v>17.92529023502835</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>25.14535675225412</v>
+        <v>16.31789288870593</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>25.14535679563976</v>
+        <v>40.15409420205793</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.14535680923477</v>
+        <v>47.91676904954475</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>25.14535676801784</v>
+        <v>30.45683846593915</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.14535680668689</v>
+        <v>54.84484719234734</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>25.14535681880395</v>
+        <v>63.36424810412589</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>25.14535681174741</v>
+        <v>61.01287783993439</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>25.14535683153673</v>
+        <v>71.52501655334922</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>25.1453568368684</v>
+        <v>78.56252328817303</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>25.14535677886123</v>
+        <v>31.52985351854213</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>25.14535682639506</v>
+        <v>61.85781963832662</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.14535684047856</v>
+        <v>71.38680529438622</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>25.14535664323639</v>
+        <v>-1.677903647011767</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.14535667752053</v>
+        <v>17.81036068912859</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.14535668860647</v>
+        <v>23.30860548250996</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.14535664328749</v>
+        <v>-0.1905931901452291</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>25.1453566821112</v>
+        <v>16.55767982914778</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.14535669466503</v>
+        <v>21.01363767543294</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.1453566531445</v>
+        <v>8.276838460257139</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>25.14535668774757</v>
+        <v>25.16293606675177</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.14535669893663</v>
+        <v>30.44918688676072</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>25.14535669806418</v>
+        <v>26.77242233591537</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.14535671551672</v>
+        <v>32.28849963184472</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.14535672082943</v>
+        <v>36.86820799001234</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.14535667069817</v>
+        <v>5.26738970675088</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.14535671293763</v>
+        <v>23.64839558477461</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.14535672605394</v>
+        <v>30.7378946707079</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.14535669896208</v>
+        <v>3.854138298162791</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.14535673753694</v>
+        <v>25.84180007171746</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.14535675038813</v>
+        <v>33.93050258837221</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>25.14535669671019</v>
+        <v>0.9054335951578878</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25.14535674039275</v>
+        <v>19.47127240465155</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.14535675494557</v>
+        <v>26.33739621129198</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25.14535671087109</v>
+        <v>10.8291518374634</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.14535674980478</v>
+        <v>30.17369626472905</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.14535676277553</v>
+        <v>37.8565968220371</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.14535675782671</v>
+        <v>32.66836572957578</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.14535677835682</v>
+        <v>41.20024076720642</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.14535678436632</v>
+        <v>48.37831953006362</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.1453567262653</v>
+        <v>10.21456288096859</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.14535677431045</v>
+        <v>34.62365622469501</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>25.14535678930743</v>
+        <v>42.96877918104202</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.14535674114347</v>
+        <v>9.778281156284164</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>25.14535677948492</v>
+        <v>34.59558155336926</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>25.14535679188803</v>
+        <v>44.0618753684148</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>25.1453567397168</v>
+        <v>6.671506134321323</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.14535678313504</v>
+        <v>28.1610823495334</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.14535679718045</v>
+        <v>36.28767074352481</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>25.14535675528077</v>
+        <v>19.89470644329878</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>25.14535679397889</v>
+        <v>42.01522629999352</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>25.14535680649738</v>
+        <v>50.98325067529035</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.14535680028846</v>
+        <v>48.72591039727835</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>25.14535682027052</v>
+        <v>58.28931723602156</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>25.14535682581335</v>
+        <v>65.89892117808816</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.14535676763102</v>
+        <v>21.24024244425063</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>25.14535681528271</v>
+        <v>49.08083200470261</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>25.14535682980576</v>
+        <v>59.42898020223241</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>25.1453566467231</v>
+        <v>-5.312426888169735</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.14535668267865</v>
+        <v>15.57911983811205</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>25.14535669418828</v>
+        <v>21.80994499520377</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>25.14535664717336</v>
+        <v>-3.634833035546247</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>25.14535668788978</v>
+        <v>14.21822941017583</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.1453567009234</v>
+        <v>19.47519204294405</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.14535665761142</v>
+        <v>4.733294937195456</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>25.14535669390144</v>
+        <v>22.8921451363031</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>25.14535670551814</v>
+        <v>28.87680056887833</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.14535670414549</v>
+        <v>23.96941189848664</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>25.14535672250394</v>
+        <v>29.82368981639596</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>25.14535672798608</v>
+        <v>35.06092579037372</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.14535667565901</v>
+        <v>1.622086637583386</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>25.14535671985815</v>
+        <v>21.31001622542531</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>25.14535673345444</v>
+        <v>28.88790767600879</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>25.14535670557073</v>
+        <v>-1.409193974595031</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>25.14535674590651</v>
+        <v>21.82955867195617</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.1453567592656</v>
+        <v>30.61744447901945</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>25.14535670356406</v>
+        <v>-4.287958549024616</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>25.1453567492407</v>
+        <v>15.18847472662386</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>25.14535676436867</v>
+        <v>22.78521939647565</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>25.14535671845416</v>
+        <v>5.366260765651575</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>25.14535675916516</v>
+        <v>25.82657424848397</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>25.14535677264852</v>
+        <v>34.16387933149252</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>25.14535676705776</v>
+        <v>28.46990110617955</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>25.14535678863523</v>
+        <v>37.44642142587556</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>25.14535679487749</v>
+        <v>45.38986383563563</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.14535673415037</v>
+        <v>5.220040525586832</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.14535678428117</v>
+        <v>30.88297758061408</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.14535679984076</v>
+        <v>39.60405595917477</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>25.14535674843764</v>
+        <v>2.568407409817919</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.14535678838181</v>
+        <v>28.42272034043695</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.14535680139608</v>
+        <v>38.88579637269023</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>25.14535674723995</v>
+        <v>-0.3527537051437442</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>25.14535679247314</v>
+        <v>21.84934399676543</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.14535680721064</v>
+        <v>30.9831804756701</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.14535676351199</v>
+        <v>12.61654241533189</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.14535680382775</v>
+        <v>35.64196362613344</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.14535681696308</v>
+        <v>45.5429865980053</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>25.14535681008871</v>
+        <v>43.03691320186364</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>25.14535683106041</v>
+        <v>53.02950288205254</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>25.14535683686055</v>
+        <v>61.61146759445229</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>25.14535677613157</v>
+        <v>14.7579104203361</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.1453568256592</v>
+        <v>43.64470742039921</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>25.14535684088892</v>
+        <v>54.75473042430037</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>25.14535666102793</v>
+        <v>12.1896335829858</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.14535669637165</v>
+        <v>35.33804678143265</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.14535670746351</v>
+        <v>41.28369782740112</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>25.14535666248255</v>
+        <v>16.22425970113672</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.14535670250614</v>
+        <v>36.61785229954645</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.14535671506668</v>
+        <v>41.55949269187097</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.14535667305701</v>
+        <v>26.36903693941974</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.14535670872951</v>
+        <v>46.7670490726745</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.14535671992456</v>
+        <v>52.50549620083797</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.14535671770929</v>
+        <v>47.50688931362002</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.14535673551329</v>
+        <v>54.26568670215302</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.1453567407628</v>
+        <v>58.81244632447227</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.14535668905675</v>
+        <v>22.3825051338966</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>25.14535673255047</v>
+        <v>44.48943717665222</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.14535674570494</v>
+        <v>52.16836980740398</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.14535671646611</v>
+        <v>12.99500482463035</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.14535675609937</v>
+        <v>38.63560948329128</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.14535676888757</v>
+        <v>46.6036134021257</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.14535671545893</v>
+        <v>11.92529519806916</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.14535676034003</v>
+        <v>34.1232614780881</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.14535677482152</v>
+        <v>40.89164764197334</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.14535673041971</v>
+        <v>23.36077463220375</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.14535677042165</v>
+        <v>46.21118089815363</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.14535678332882</v>
+        <v>53.7760241064294</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.14535677721549</v>
+        <v>48.23244836570926</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.14535679809033</v>
+        <v>58.08249438826685</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.14535680401563</v>
+        <v>65.01147501655122</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.14535674439121</v>
+        <v>22.63259127718607</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>25.14535679369316</v>
+        <v>50.86784256776455</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.14535680864795</v>
+        <v>59.15518619978261</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.14535675675459</v>
+        <v>17.33925495381376</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.14535679607112</v>
+        <v>45.62354254435584</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.14535680844086</v>
+        <v>55.1325512822068</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.14535675642764</v>
+        <v>16.15706473601892</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.14535680095007</v>
+        <v>41.101549017165</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>25.14535681495769</v>
+        <v>49.2979175361873</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.14535677273102</v>
+        <v>30.88457905827587</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>25.14535681241328</v>
+        <v>56.32542612399313</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>25.14535682489809</v>
+        <v>65.33792636694518</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.14535681759953</v>
+        <v>62.91698861580617</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>25.14535683790385</v>
+        <v>73.77869242402912</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>25.14535684338756</v>
+        <v>81.11840315750069</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.14535678378042</v>
+        <v>32.34754684209958</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>25.14535683259906</v>
+        <v>63.93088533641844</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>25.14535684711174</v>
+        <v>74.33489906810651</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>25.14535663558213</v>
+        <v>-4.551201977161796</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>25.1453566691447</v>
+        <v>14.23448198314082</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>25.14535667998215</v>
+        <v>19.75339424530149</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.14535663480524</v>
+        <v>-4.04641265756787</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>25.14535667281185</v>
+        <v>11.89411858461968</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.14535668508429</v>
+        <v>16.43252616218475</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.14535664421909</v>
+        <v>3.800636330669203</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.14535667809388</v>
+        <v>20.06786755640553</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>25.14535668903215</v>
+        <v>25.36643256797084</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.14535668855647</v>
+        <v>21.32472641776623</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.14535670561819</v>
+        <v>26.70734695013819</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.14535671086622</v>
+        <v>31.2185884890446</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.14535666194039</v>
+        <v>0.2659955223627932</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>25.14535670335796</v>
+        <v>18.35583739725977</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.14535671618193</v>
+        <v>25.00988249696538</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>25.14535668878481</v>
+        <v>-2.171388240838475</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>25.14535672648694</v>
+        <v>18.85650569906831</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>25.14535673912525</v>
+        <v>27.18889873997439</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.14535668572493</v>
+        <v>-5.6959344287738</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.14535672841921</v>
+        <v>11.84029555283352</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.14535674273097</v>
+        <v>18.96080803819844</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.14535669930506</v>
+        <v>3.27303807882814</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.14535673735791</v>
+        <v>21.74015696133761</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.1453567501138</v>
+        <v>29.6754932706563</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.14535674561954</v>
+        <v>24.15980387456037</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>25.14535676567517</v>
+        <v>32.4431796866396</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.14535677164104</v>
+        <v>39.68634281602571</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.14535671494337</v>
+        <v>2.231898654081309</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.14535676195275</v>
+        <v>26.0319688369278</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>25.14535677671245</v>
+        <v>34.23720313788312</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.14535673149472</v>
+        <v>3.902661429319629</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.1453567690076</v>
+        <v>27.74089751050268</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.14535678119521</v>
+        <v>37.51384680124332</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.14535672931759</v>
+        <v>0.02869035755820448</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.14535677179756</v>
+        <v>20.49878463999383</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.14535678559893</v>
+        <v>28.91351498782531</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.1453567443376</v>
+        <v>12.32654770948139</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>25.14535678219945</v>
+        <v>33.55471595035348</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.14535679450043</v>
+        <v>42.8317921321058</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>25.14535678876775</v>
+        <v>40.08035438486832</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.14535680831576</v>
+        <v>49.48929868252833</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.14535681380283</v>
+        <v>57.26359586706101</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.14535675696882</v>
+        <v>13.35406237718057</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.14535680364871</v>
+        <v>40.49605616400303</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.14535681791784</v>
+        <v>50.81208205325812</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.14535664185002</v>
+        <v>0.2896893357222439</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.14535667667504</v>
+        <v>21.47489615070443</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.14535668755823</v>
+        <v>26.70347292038624</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>25.14535664159079</v>
+        <v>2.10054977056501</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.14535668102701</v>
+        <v>20.36471178650624</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.14535669335124</v>
+        <v>24.61499651060371</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.14535665145877</v>
+        <v>10.95265780075606</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.14535668660776</v>
+        <v>29.46899545468525</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.14535669759218</v>
+        <v>34.49702289720976</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.14535669636678</v>
+        <v>30.32959146005887</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.1453567139012</v>
+        <v>36.58280103101339</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.14535671914231</v>
+        <v>40.68912204285955</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.14535666857901</v>
+        <v>7.066606589176942</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.14535671146591</v>
+        <v>27.47951480534376</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.14535672438021</v>
+        <v>33.59157655995921</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.1453566984557</v>
+        <v>8.918741762802465</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>25.14535673755453</v>
+        <v>32.79378382018336</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.14535675018296</v>
+        <v>40.25547129709704</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>25.1453566958409</v>
+        <v>6.721156525387361</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.14535674011681</v>
+        <v>27.01306494563137</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.14535675441737</v>
+        <v>33.2399557883087</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>25.14535671014904</v>
+        <v>17.13072622358925</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.14535674961159</v>
+        <v>38.27379743900639</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>25.14535676235749</v>
+        <v>45.36288702091809</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>25.1453567571462</v>
+        <v>40.38513143490601</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>25.14535677772277</v>
+        <v>49.76485325492715</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.14535678365034</v>
+        <v>56.32088029879704</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>25.14535672512347</v>
+        <v>16.07646182234544</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>25.14535677377721</v>
+        <v>42.80868158938091</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>25.14535678855885</v>
+        <v>49.82401890649814</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>25.14535674149687</v>
+        <v>13.91261378719062</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>25.14535678034227</v>
+        <v>40.54220050038754</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>25.14535679256099</v>
+        <v>49.63810892316846</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.14535673966672</v>
+        <v>11.23364299338987</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25.14535678365564</v>
+        <v>34.42962546205261</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>25.14535679749225</v>
+        <v>42.13090974504199</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>25.14535675545425</v>
+        <v>25.03626529713208</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>25.145356794661</v>
+        <v>48.87615698916365</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.14535680699339</v>
+        <v>57.49965352844475</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.14535680049672</v>
+        <v>55.34312065466784</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.1453568205532</v>
+        <v>65.87746531257098</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>25.14535682602979</v>
+        <v>72.92183056449691</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>25.14535676737155</v>
+        <v>26.13814445196412</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>25.14535681562882</v>
+        <v>56.28269249507491</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>25.14535682997414</v>
+        <v>65.55060971378745</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>25.14535663404106</v>
+        <v>-3.431021121589886</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>25.14535666839588</v>
+        <v>16.18068606400966</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>25.14535667935591</v>
+        <v>21.25875556358975</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>25.14535663339201</v>
+        <v>-2.528561987259355</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>25.14535667229575</v>
+        <v>14.21427272042798</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>25.14535668470701</v>
+        <v>18.29462167917723</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.14535664296681</v>
+        <v>5.723181860485123</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.14535667764121</v>
+        <v>22.7028408172131</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.1453566887032</v>
+        <v>27.56909505192635</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.14535668820241</v>
+        <v>23.63515139157551</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.14535670558928</v>
+        <v>29.21612028096817</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.14535671088914</v>
+        <v>33.41987889923484</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.14535666098971</v>
+        <v>2.077103797790102</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.14535670334309</v>
+        <v>20.83979638708684</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.14535671634737</v>
+        <v>26.99633607415924</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.14535668815267</v>
+        <v>-3.405534941137901</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>25.14535672673321</v>
+        <v>18.54116404077892</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.14535673947332</v>
+        <v>26.07687741782441</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>25.14535668505747</v>
+        <v>-6.817007132567614</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>25.14535672874647</v>
+        <v>11.58059606506675</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>25.1453567431735</v>
+        <v>17.8740641375601</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>25.14535669894517</v>
+        <v>2.444106476681831</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>25.1453567378846</v>
+        <v>21.71618324349635</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.14535675074323</v>
+        <v>28.8714015381588</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>25.14535674622526</v>
+        <v>23.93585036817114</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>25.14535676663711</v>
+        <v>32.52101105978371</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.14535677263003</v>
+        <v>39.26538803662081</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.14535671486433</v>
+        <v>1.553556202525026</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.14535676293258</v>
+        <v>26.20162781363923</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.1453567778414</v>
+        <v>33.47009997006609</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>25.14535673256231</v>
+        <v>4.659730510900651</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.14535677097178</v>
+        <v>29.60062206033385</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>25.14535678324793</v>
+        <v>38.64056084191206</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>25.14535673034243</v>
+        <v>0.8716437140955371</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>25.1453567738377</v>
+        <v>22.38866439212666</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.14535678773934</v>
+        <v>30.04507751462922</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>25.14535674578394</v>
+        <v>13.64811522899216</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>25.1453567845507</v>
+        <v>35.85378827302173</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.14535679694105</v>
+        <v>44.41739882974753</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>25.14535679110116</v>
+        <v>42.19138987421655</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.14535681099947</v>
+        <v>51.97337978326903</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>25.14535681651681</v>
+        <v>59.12122861375482</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>25.14535675854547</v>
+        <v>14.69840354887734</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.1453568063109</v>
+        <v>42.99257561407369</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.14535682072058</v>
+        <v>52.35926991942766</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>25.14535662957216</v>
+        <v>-9.776004197897791</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.14535666241998</v>
+        <v>8.500728045394887</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.14535667289535</v>
+        <v>13.04184376390722</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.14535662830582</v>
+        <v>-9.513958369436189</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.14535666550302</v>
+        <v>5.94031145676788</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.14535667736543</v>
+        <v>9.536138130953956</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.14535663716749</v>
+        <v>-2.254083599307851</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>25.14535667032087</v>
+        <v>13.49878836631531</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.14535668089368</v>
+        <v>17.83644843363066</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.14535668080631</v>
+        <v>14.43714675342338</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.14535669744512</v>
+        <v>19.62016291658634</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.1453567025286</v>
+        <v>23.53425254853886</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.14535665502626</v>
+        <v>-5.306401682414656</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.14535669551509</v>
+        <v>12.21490513692111</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.14535670794293</v>
+        <v>17.57167405191418</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.14535668222281</v>
+        <v>-7.902323855454405</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>25.14535671913546</v>
+        <v>12.62351093284063</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.14535673133373</v>
+        <v>19.57628953821544</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.14535667862447</v>
+        <v>-11.53016307682788</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.14535672042473</v>
+        <v>5.521290424700965</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.14535673423817</v>
+        <v>11.26834224018598</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.14535669166218</v>
+        <v>-3.205688736086838</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>25.14535672891821</v>
+        <v>14.74930253193353</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.14535674122995</v>
+        <v>21.34226447086384</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.14535673725932</v>
+        <v>16.98273777342397</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.14535675680295</v>
+        <v>25.09027547254744</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.14535676256056</v>
+        <v>31.46259777146905</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.14535670744495</v>
+        <v>-3.687869701055323</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.1453567534256</v>
+        <v>19.5007013658636</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.14535676770114</v>
+        <v>25.986963953418</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.14535672611236</v>
+        <v>0.5048562949777562</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.14535676286652</v>
+        <v>23.92710740063403</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.14535677464086</v>
+        <v>32.3900624972671</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.14535672339589</v>
+        <v>-3.603847775320439</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.14535676501668</v>
+        <v>16.4725819423479</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.14535677835005</v>
+        <v>23.58217187616811</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.14535673798184</v>
+        <v>8.189790494968987</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.1453567750779</v>
+        <v>28.9806277357394</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.14535678696176</v>
+        <v>36.98907350826103</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.14535678166833</v>
+        <v>35.07460539360012</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.1453568007361</v>
+        <v>44.3666302590854</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.14535680604163</v>
+        <v>51.14821093305538</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.14535675067053</v>
+        <v>9.482549606205152</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.14535679636739</v>
+        <v>36.19068515083271</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.14535681019249</v>
+        <v>44.75393551251817</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.14535664499537</v>
+        <v>3.669036003645818</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.14535668111577</v>
+        <v>24.34798211746557</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.14535669280971</v>
+        <v>30.63020541663575</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>25.14535664522373</v>
+        <v>4.787794561835721</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.14535668612683</v>
+        <v>22.41678721155785</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.14535669936916</v>
+        <v>27.6907399661868</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.14535665584424</v>
+        <v>13.78298552636464</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.14535669230064</v>
+        <v>31.72109653463938</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.14535670410336</v>
+        <v>37.75417923782832</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.14535670302599</v>
+        <v>32.41637475204966</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.14535672150456</v>
+        <v>37.99910093502493</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>25.14535672708654</v>
+        <v>43.38076754454308</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.14535667445386</v>
+        <v>10.29067908398159</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.14535671889526</v>
+        <v>29.72518724972935</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>25.14535673269968</v>
+        <v>37.48747573558807</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>25.14535670327452</v>
+        <v>4.639625743020662</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.14535674381543</v>
+        <v>27.64764393950705</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.14535675738835</v>
+        <v>36.56980326883566</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.14535670099232</v>
+        <v>0.9341199745367419</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.14535674690126</v>
+        <v>20.16256364431084</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.14535676227137</v>
+        <v>27.87319611897047</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.1453567160273</v>
+        <v>11.06079988241475</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.14535675694534</v>
+        <v>31.29012087034992</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.14535677064451</v>
+        <v>39.75648127826311</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.14535676525228</v>
+        <v>33.39154095283041</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>25.14535678698049</v>
+        <v>42.0480308962096</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>25.1453567933243</v>
+        <v>50.15631517687686</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.14535673225492</v>
+        <v>10.40038389992528</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.14535678268629</v>
+        <v>35.79741888882798</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.14535679848398</v>
+        <v>44.77849457852694</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.14535674692579</v>
+        <v>9.592367982554807</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>25.1453567871088</v>
+        <v>35.32231913575804</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.14535680028948</v>
+        <v>45.85141269372662</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.14535674549462</v>
+        <v>5.910139409736065</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.14535679099826</v>
+        <v>27.96548227675209</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.14535680592421</v>
+        <v>37.15305951796951</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.14535676193049</v>
+        <v>19.41199831923413</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.1453568024873</v>
+        <v>42.31328143794362</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.1453568157906</v>
+        <v>52.27469528997208</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.14535680909755</v>
+        <v>49.21041227701602</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>25.1453568302038</v>
+        <v>58.88505950475965</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.14535683608313</v>
+        <v>67.6029086527827</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.14535677500292</v>
+        <v>21.05861242883057</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>25.14535682486321</v>
+        <v>49.75195101989353</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.14535684027329</v>
+        <v>61.07822786185161</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.14535664192513</v>
+        <v>7.44182802406862</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>25.14535667636319</v>
+        <v>28.2515689372686</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.14535668728032</v>
+        <v>33.84848009939198</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.14535664163279</v>
+        <v>9.39367969156012</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.1453566806308</v>
+        <v>27.31099928015539</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.14535669299348</v>
+        <v>31.92336918685216</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.14535665146436</v>
+        <v>18.36693151098211</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.14535668622278</v>
+        <v>36.54586346986514</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.14535669724146</v>
+        <v>41.92455328551904</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.14535669623126</v>
+        <v>37.41867348685394</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.14535671362687</v>
+        <v>43.5879414415135</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.14535671888937</v>
+        <v>47.87764382575065</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.14535666876449</v>
+        <v>14.45682772370419</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.14535671123787</v>
+        <v>34.64436213552183</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.1453567241813</v>
+        <v>41.30531960116704</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.14535669545251</v>
+        <v>7.772828469961212</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.1453567340584</v>
+        <v>30.91617675262867</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.1453567467626</v>
+        <v>38.98709615502915</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.145356692734</v>
+        <v>5.524354442290122</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.1453567364517</v>
+        <v>25.11531228750708</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.14535675083806</v>
+        <v>31.9422752889775</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>25.14535670683048</v>
+        <v>15.51705333338927</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.1453567457955</v>
+        <v>35.98249983707009</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.14535675861787</v>
+        <v>43.66272539135274</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.14535675362906</v>
+        <v>38.24004051501569</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.14535677403527</v>
+        <v>47.38820962394227</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>25.14535678000314</v>
+        <v>54.26549092063863</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>25.14535672206394</v>
+        <v>14.46037854133471</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>25.14535677017003</v>
+        <v>40.59378227350524</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>25.14535678502912</v>
+        <v>48.39848271927652</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>25.1453567381635</v>
+        <v>12.59454458735189</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>25.14535677654714</v>
+        <v>38.5542195622313</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>25.14535678881538</v>
+        <v>48.2096188864976</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>25.14535673628262</v>
+        <v>9.926391446316876</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.14535677974865</v>
+        <v>32.47641367620876</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.14535679364133</v>
+        <v>40.73967150113099</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>25.14535675184164</v>
+        <v>23.27333916030537</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>25.14535679058233</v>
+        <v>46.50355244595761</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.1453568029647</v>
+        <v>55.66539274913713</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.14535679672967</v>
+        <v>53.05727394404532</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>25.14535681661534</v>
+        <v>63.39156192279205</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>25.14535682211772</v>
+        <v>70.76583872140819</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>25.14535676405364</v>
+        <v>24.41629312657631</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>25.14535681179603</v>
+        <v>53.95032387655786</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>25.14535682618434</v>
+        <v>63.9730248535589</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>25.14535665525682</v>
+        <v>8.431580546726455</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.14535669203944</v>
+        <v>31.12184457008074</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>25.14535670378097</v>
+        <v>37.73550362144333</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>25.14535665638801</v>
+        <v>11.13396601338267</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.14535669804102</v>
+        <v>30.77685679638412</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.14535671133725</v>
+        <v>36.39163204608756</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.14535666739969</v>
+        <v>20.78457370494856</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.14535670452448</v>
+        <v>40.6408885407611</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>25.14535671637524</v>
+        <v>47.00382164813895</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.14535671449607</v>
+        <v>41.24026113658212</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>25.14535673324237</v>
+        <v>47.52342272090146</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>25.1453567388059</v>
+        <v>52.95474912196077</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>25.1453566851196</v>
+        <v>16.95094589838804</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>25.14535673034321</v>
+        <v>38.43369287284707</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>25.14535674421646</v>
+        <v>46.68247120695501</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.14535671431843</v>
+        <v>10.97275226428634</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.14535675554903</v>
+        <v>36.1168041341877</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.14535676914846</v>
+        <v>45.22115819218072</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.14535671290615</v>
+        <v>8.714757891663043</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.14535675959611</v>
+        <v>30.07216233079892</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>25.14535677499624</v>
+        <v>37.97707849827695</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>25.14535672840395</v>
+        <v>19.6208203124391</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.1453567700181</v>
+        <v>41.89012004480962</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>25.14535678374403</v>
+        <v>50.52663265849786</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>25.14535677760535</v>
+        <v>44.01003438440745</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>25.14535679962217</v>
+        <v>53.47869698325251</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>25.14535680594496</v>
+        <v>61.61576128449138</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.14535674378232</v>
+        <v>18.92650380500162</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>25.14535679503479</v>
+        <v>46.60909496641073</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>25.14535681087434</v>
+        <v>55.87389254657506</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>25.14535675663934</v>
+        <v>14.43206370115188</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.14535679745623</v>
+        <v>42.18951200279903</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>25.14535681067954</v>
+        <v>52.93024610679436</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.1453567559984</v>
+        <v>12.21941176843254</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.14535680221985</v>
+        <v>36.29780716504069</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>25.14535681719407</v>
+        <v>45.71643823139921</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>25.14535677284211</v>
+        <v>26.46994479336347</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.14535681403869</v>
+        <v>51.30473882697169</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>25.14535682738501</v>
+        <v>61.46615079297497</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>25.14535681999902</v>
+        <v>58.43784263130721</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>25.14535684137432</v>
+        <v>68.89355858467997</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>25.14535684724538</v>
+        <v>77.62123335926702</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>25.14535678515423</v>
+        <v>28.2501462142575</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>25.14535683577064</v>
+        <v>59.15664591315759</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>25.14535685124252</v>
+        <v>70.78154486365818</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>25.14535665450923</v>
+        <v>8.31953125794781</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.14535668951595</v>
+        <v>29.07149005756125</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>25.14535670077299</v>
+        <v>35.39664897990308</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.14535665529861</v>
+        <v>10.68812625873428</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.14535669494057</v>
+        <v>28.44361789130698</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.14535670768815</v>
+        <v>33.82724088724827</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.14535666561126</v>
+        <v>19.24228218484006</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>25.14535670094363</v>
+        <v>37.2928163781506</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.14535671230538</v>
+        <v>43.36202485418799</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.14535671085585</v>
+        <v>37.50902458432815</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.14535672877437</v>
+        <v>43.05416007340544</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>25.14535673412938</v>
+        <v>48.41269161728182</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.14535668310872</v>
+        <v>15.33709177357318</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.14535672612966</v>
+        <v>34.81038056742157</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>25.14535673942742</v>
+        <v>42.65561881985282</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.14535671185365</v>
+        <v>12.04983796272253</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.14535675110727</v>
+        <v>35.09868855950752</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.14535676416856</v>
+        <v>43.95606148545143</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.14535671025006</v>
+        <v>9.969683354233235</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.14535675470126</v>
+        <v>29.30024790873426</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.14535676949199</v>
+        <v>37.02108947667836</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>25.14535672483103</v>
+        <v>19.66927605362941</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.1453567644498</v>
+        <v>39.97666051804775</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.14535677763259</v>
+        <v>48.36979454394515</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.14535677202038</v>
+        <v>41.64225935455652</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.14535679308355</v>
+        <v>50.19018150781832</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.14535679917763</v>
+        <v>58.19858109610455</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.14535673997617</v>
+        <v>18.56037883410426</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.14535678875814</v>
+        <v>43.89486884652692</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>25.14535680396158</v>
+        <v>52.8479413655252</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.14535675294528</v>
+        <v>15.11064347773284</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>25.14535679179611</v>
+        <v>40.66554170206166</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>25.14535680451273</v>
+        <v>51.09325865051492</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.14535675211531</v>
+        <v>13.03431674287414</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>25.14535679611039</v>
+        <v>34.97614970353273</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>25.14535681051082</v>
+        <v>44.13901236573747</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>25.14535676799816</v>
+        <v>25.94949308307567</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>25.14535680721039</v>
+        <v>48.71848689327244</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>25.14535682004531</v>
+        <v>58.57043500677757</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.14535681321441</v>
+        <v>55.20589535061768</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>25.14535683365994</v>
+        <v>64.70944727430907</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>25.14535683932147</v>
+        <v>73.34042823934483</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.1453567801737</v>
+        <v>27.21581472868748</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>25.14535682833261</v>
+        <v>55.60115588845402</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>25.14535684320819</v>
+        <v>66.86947911744416</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>25.14535664429897</v>
+        <v>4.698198844650761</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.14535668077944</v>
+        <v>26.76177782874736</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>25.1453566923144</v>
+        <v>32.95093291284578</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.14535664451076</v>
+        <v>6.621140997748004</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.14535668582161</v>
+        <v>25.60999477578361</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.14535669888391</v>
+        <v>30.75995085808989</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.14535665518199</v>
+        <v>16.18435123147622</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.14535669200182</v>
+        <v>35.49053631401888</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.14535670364407</v>
+        <v>41.45339999124838</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.14535670224032</v>
+        <v>36.4540341270712</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>25.1453567206873</v>
+        <v>42.8093241964519</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.14535672622419</v>
+        <v>47.66787100049602</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.14535667306957</v>
+        <v>11.87729937792425</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>25.14535671802615</v>
+        <v>33.2170326579416</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>25.14535673168633</v>
+        <v>40.59448976390925</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>25.14535670162219</v>
+        <v>6.113331782675907</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>25.1453567425174</v>
+        <v>30.64040213788573</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.1453567559067</v>
+        <v>39.32626043029418</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>25.14535669934251</v>
+        <v>3.374926616210644</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>25.14535674565266</v>
+        <v>24.13601493585677</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.14535676081484</v>
+        <v>31.52966357573081</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.14535671449731</v>
+        <v>14.10158850181379</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>25.14535675577294</v>
+        <v>35.82297151845303</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>25.1453567692868</v>
+        <v>44.09211530875971</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.14535676368594</v>
+        <v>38.14826807597319</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>25.14535678533307</v>
+        <v>47.60687359430682</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>25.145356791617</v>
+        <v>55.14628037714922</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.14535673015342</v>
+        <v>12.83544188543864</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>25.14535678106959</v>
+        <v>40.34105098274733</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.14535679671613</v>
+        <v>48.83266320340854</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.14535674530829</v>
+        <v>10.18940425161169</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>25.14535678589964</v>
+        <v>37.42711915768665</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>25.1453567988638</v>
+        <v>47.82593813071633</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>25.14535674385183</v>
+        <v>7.116967182832674</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>25.14535678981789</v>
+        <v>30.73139763871162</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.14535680449864</v>
+        <v>39.68612933832039</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.14535676045326</v>
+        <v>21.26470537775063</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>25.14535680142221</v>
+        <v>45.64538431705061</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>25.14535681450698</v>
+        <v>55.51668217520704</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.14535680763126</v>
+        <v>52.73388734771935</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>25.14535682870521</v>
+        <v>63.32993267046083</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>25.14535683450978</v>
+        <v>71.47796823854881</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.14535677299741</v>
+        <v>22.42372248996151</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>25.14535682343989</v>
+        <v>53.25588549452949</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.14535683863244</v>
+        <v>64.15890068364641</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>25.14535664503447</v>
+        <v>-0.3484919820164087</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>25.14535667890979</v>
+        <v>18.90197685268571</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>25.1453566899182</v>
+        <v>24.78491453134448</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>25.14535664500628</v>
+        <v>0.4120091301772391</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.14535668336704</v>
+        <v>16.81373665516672</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.14535669583307</v>
+        <v>21.71359412293284</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.14535665480934</v>
+        <v>8.621823511754593</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.14535668899978</v>
+        <v>25.29213596345502</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.14535670011059</v>
+        <v>30.92710805530112</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.14535669926297</v>
+        <v>26.28011486794646</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.14535671662463</v>
+        <v>31.62628810419182</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.14535672187762</v>
+        <v>36.6562112638896</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.14535667246317</v>
+        <v>5.015053930727717</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.14535671419181</v>
+        <v>23.07126980754108</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.14535672718944</v>
+        <v>30.43796038122856</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.14535670018096</v>
+        <v>3.341236425404322</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.1453567382457</v>
+        <v>24.94717651568816</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.14535675102708</v>
+        <v>33.57152484074054</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>25.14535669783079</v>
+        <v>-0.2687594813636203</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.14535674093568</v>
+        <v>17.79977811631128</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.14535675540946</v>
+        <v>25.26587047369598</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>25.1453567118171</v>
+        <v>9.121866365018587</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.14535675023593</v>
+        <v>28.10791955510223</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.14535676313622</v>
+        <v>36.28375363098497</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.14535675822141</v>
+        <v>30.27828733927099</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>25.14535677864179</v>
+        <v>38.57866305246118</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.14535678461994</v>
+        <v>46.3022270129732</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>25.14535672726148</v>
+        <v>7.980142101761412</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>25.14535677466106</v>
+        <v>31.8707582210653</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.14535678954585</v>
+        <v>40.68967203693539</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.14535674145176</v>
+        <v>7.228220625562283</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>25.14535677921207</v>
+        <v>31.43042449959446</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.14535679161924</v>
+        <v>41.56007108845797</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.14535673990594</v>
+        <v>3.497911434291815</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>25.14535678266609</v>
+        <v>24.26682960938529</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.1453567967161</v>
+        <v>33.1052309570446</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.14535675521993</v>
+        <v>16.01168407811748</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>25.1453567933315</v>
+        <v>37.54617435081144</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>25.14535680585409</v>
+        <v>47.12581313607717</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.14535679966651</v>
+        <v>44.15403158986682</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>25.14535681952016</v>
+        <v>53.46581446497099</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.14535682505772</v>
+        <v>61.74774678184332</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>25.14535676765576</v>
+        <v>17.05518617265155</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>25.14535681455743</v>
+        <v>44.09209726814484</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>25.14535682907179</v>
+        <v>55.1296755896245</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>25.14535665279282</v>
+        <v>5.754974865964687</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>25.14535668757252</v>
+        <v>26.14918837443037</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>25.1453566988063</v>
+        <v>32.49042896754359</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>25.14535665344092</v>
+        <v>7.708319515684543</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>25.14535669282582</v>
+        <v>25.11492296470709</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>25.14535670554706</v>
+        <v>30.51432120823979</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>25.14535666366149</v>
+        <v>16.14956230237379</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.14535669876473</v>
+        <v>33.86124405030861</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>25.14535671010301</v>
+        <v>39.94444848590085</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.1453567088185</v>
+        <v>34.25673664799557</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>25.14535672665233</v>
+        <v>39.68824506993222</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>25.14535673200112</v>
+        <v>45.10248484871993</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.14535668130073</v>
+        <v>12.50401962111743</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.14535672405949</v>
+        <v>31.63772277967104</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.14535673732127</v>
+        <v>39.51088233495994</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.14535670959715</v>
+        <v>8.67474325105252</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.14535674860792</v>
+        <v>31.3334437295728</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>25.14535676165479</v>
+        <v>40.2899214301443</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.1453567078685</v>
+        <v>6.156897866379129</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>25.14535675204469</v>
+        <v>25.11053113231442</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>25.14535676681909</v>
+        <v>32.93332321737556</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.14535672232091</v>
+        <v>15.69974534034679</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>25.14535676169456</v>
+        <v>35.63766482775783</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>25.1453567748628</v>
+        <v>44.12730385597796</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.14535676941118</v>
+        <v>37.4590961607727</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.14535679038125</v>
+        <v>45.87664533906141</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>25.14535679647258</v>
+        <v>53.98416971850642</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>25.14535673761734</v>
+        <v>14.78401795851582</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.14535678611508</v>
+        <v>39.72106025654269</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.1453568012939</v>
+        <v>48.80076809780563</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.14535675068829</v>
+        <v>11.85367067575985</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.14535678930887</v>
+        <v>37.0326091113508</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.14535680200391</v>
+        <v>47.53679661458298</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.14535674975008</v>
+        <v>9.344648392923814</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.14535679348442</v>
+        <v>30.92177935795853</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>25.14535680786042</v>
+        <v>40.1653847442353</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.14535676550076</v>
+        <v>22.10248489679017</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.1453568044806</v>
+        <v>44.51611142278176</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>25.14535681729375</v>
+        <v>54.44245872713012</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.14535681062446</v>
+        <v>51.12707461649474</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>25.14535683097862</v>
+        <v>60.49147924333059</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>25.14535683663386</v>
+        <v>69.21990528108908</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>25.14535677782572</v>
+        <v>23.54117169725737</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>25.14535682571332</v>
+        <v>51.52987499295632</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>25.14535684055618</v>
+        <v>62.90608433805132</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>25.14535665552124</v>
+        <v>10.82397051077051</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.14535669049249</v>
+        <v>32.08052207475286</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>25.1453567016604</v>
+        <v>38.00214304871082</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>25.14535665639932</v>
+        <v>13.49726211636323</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>25.14535669600112</v>
+        <v>31.94376495724608</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>25.14535670864777</v>
+        <v>36.87020239717451</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>25.14535666673271</v>
+        <v>22.86751081637871</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>25.14535670202928</v>
+        <v>41.42302527362919</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>25.14535671330107</v>
+        <v>47.10606437917608</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>25.14535671169036</v>
+        <v>41.61270685594754</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>25.14535672944285</v>
+        <v>47.45434782365967</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.14535673476368</v>
+        <v>52.24408299288726</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>25.14535668366662</v>
+        <v>18.40938343791789</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>25.14535672667941</v>
+        <v>38.39649723219797</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>25.14535673992494</v>
+        <v>46.10239038589732</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>25.14535671164569</v>
+        <v>12.28864016225317</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.14535675087236</v>
+        <v>35.86432984785323</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.14535676379078</v>
+        <v>44.05557960076374</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>25.14535671007548</v>
+        <v>10.1283427988995</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>25.14535675449615</v>
+        <v>30.17669296018309</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>25.14535676912511</v>
+        <v>37.18263829657355</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.14535672472367</v>
+        <v>20.75426684332109</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>25.14535676431523</v>
+        <v>41.59325701154538</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>25.14535677735383</v>
+        <v>49.35173732617933</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>25.14535677169678</v>
+        <v>43.0796042903702</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>25.14535679254418</v>
+        <v>51.8456891452434</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>25.14535679856571</v>
+        <v>59.10210223948216</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>25.14535673946374</v>
+        <v>19.17561862779399</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>25.14535678824766</v>
+        <v>45.0632853561362</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>25.14535680334404</v>
+        <v>53.55229812945755</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>25.14535675264703</v>
+        <v>15.5161768318463</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>25.14535679154927</v>
+        <v>41.72737577599566</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>25.14535680406843</v>
+        <v>51.40621001532906</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.14535675180927</v>
+        <v>13.13995724783614</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>25.14535679586255</v>
+        <v>35.92558291876676</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>25.14535681003939</v>
+        <v>44.29664892971753</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>25.14535676780078</v>
+        <v>27.00340049167016</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>25.1453568070649</v>
+        <v>50.43075334897748</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>25.14535681970052</v>
+        <v>59.57513513283326</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>25.14535681281931</v>
+        <v>56.45348112846294</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>25.14535683308962</v>
+        <v>66.26182012883481</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>25.14535683866514</v>
+        <v>73.99631327920787</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>25.14535677956194</v>
+        <v>27.62297195394065</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>25.14535682784202</v>
+        <v>56.76518740987692</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>25.14535684252573</v>
+        <v>67.40053930892839</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>25.14535664704324</v>
+        <v>5.463460629978929</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>25.14535668344922</v>
+        <v>27.61470372513165</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>25.14535669493755</v>
+        <v>33.83085977131008</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>25.14535664749312</v>
+        <v>7.52633377899204</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>25.14535668871962</v>
+        <v>26.63032146058949</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.14535670172912</v>
+        <v>31.8130686392434</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>25.14535665818385</v>
+        <v>17.09131364923645</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.14535669492849</v>
+        <v>36.48811799136146</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>25.14535670652368</v>
+        <v>42.47696389999847</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.14535670504482</v>
+        <v>37.38155366947362</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>25.14535672347323</v>
+        <v>43.7523866200993</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>25.14535672897297</v>
+        <v>48.65678002625101</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>25.14535667591504</v>
+        <v>12.77639192271081</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>25.14535672076954</v>
+        <v>34.21742287693674</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>25.14535673437312</v>
+        <v>41.61896034600879</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>25.14535670438303</v>
+        <v>6.958522815736529</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>25.14535674519261</v>
+        <v>31.52893265901013</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>25.14535675852263</v>
+        <v>40.2783132898843</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>25.1453567023434</v>
+        <v>4.33997847104671</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>25.14535674855659</v>
+        <v>25.16657168896889</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>25.14535676365163</v>
+        <v>32.63972468842526</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>25.14535671750622</v>
+        <v>15.06838410100796</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>25.14535675869543</v>
+        <v>36.8376879804885</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>25.14535677214945</v>
+        <v>45.16746578991361</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>25.14535676648814</v>
+        <v>39.09814485242048</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>25.14535678811787</v>
+        <v>48.5428600454331</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>25.14535679435952</v>
+        <v>56.12777625941785</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>25.14535673300796</v>
+        <v>13.7702432311581</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>25.14535678381269</v>
+        <v>41.32187638385714</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>25.14535679938153</v>
+        <v>49.85276570889087</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>25.14535674743283</v>
+        <v>10.1069975257071</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>25.14535678791462</v>
+        <v>37.29428822092676</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>25.145356800836</v>
+        <v>47.7773295356498</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>25.14535674618453</v>
+        <v>7.109768714423719</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>25.14535679202652</v>
+        <v>30.69028391983709</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>25.14535680665882</v>
+        <v>39.7486032118311</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>25.14535676275545</v>
+        <v>21.19773200115905</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>25.14535680361382</v>
+        <v>45.53492125787437</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>25.1453568166554</v>
+        <v>55.4880077317975</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.14535680973574</v>
+        <v>52.58831189058522</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>25.14535683078014</v>
+        <v>63.16346192561772</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>25.14535683655338</v>
+        <v>71.37147691625074</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>25.14535677518112</v>
+        <v>22.34786272728947</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>25.14535682547953</v>
+        <v>53.1124155518382</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>25.14535684061716</v>
+        <v>64.09024111106172</v>
       </c>
     </row>
   </sheetData>
